--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66985.39203337977</v>
+        <v>66268.15541790021</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4950248.695730079</v>
+        <v>4950248.695730074</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736551</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.1078504188221</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>229.1191673765039</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>220.1004714210319</v>
       </c>
       <c r="E11" t="n">
-        <v>241.8426089909374</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>143.2027961804017</v>
+        <v>262.3409051157629</v>
       </c>
       <c r="H11" t="n">
         <v>174.2835417775414</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.53425353909795</v>
+        <v>22.53425353909802</v>
       </c>
       <c r="T11" t="n">
-        <v>70.46388924261852</v>
+        <v>70.46388924261856</v>
       </c>
       <c r="U11" t="n">
-        <v>103.2926861902831</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>37.09023810669174</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>209.9143271369582</v>
       </c>
       <c r="X11" t="n">
         <v>229.2145853697048</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.829994649431455</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>11.09138232743803</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.52047122575469</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>185.4896446502776</v>
       </c>
       <c r="U12" t="n">
-        <v>67.2932315547432</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V12" t="n">
-        <v>77.11641262213254</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>82.1224902908142</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>41.60085938290013</v>
+        <v>74.41917014581507</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.7245612935192</v>
+        <v>32.72456129351926</v>
       </c>
       <c r="C13" t="n">
-        <v>18.92455613891968</v>
+        <v>18.92455613891974</v>
       </c>
       <c r="D13" t="n">
-        <v>2.545920536498073</v>
+        <v>2.54592053649813</v>
       </c>
       <c r="E13" t="n">
-        <v>1.493670392277522</v>
+        <v>1.493670392277579</v>
       </c>
       <c r="F13" t="n">
-        <v>1.960594720463831</v>
+        <v>1.960594720463888</v>
       </c>
       <c r="G13" t="n">
-        <v>17.96311329697623</v>
+        <v>17.96311329697627</v>
       </c>
       <c r="H13" t="n">
-        <v>6.363700576783362</v>
+        <v>6.36370057678343</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.83398394224579</v>
+        <v>57.83398394224585</v>
       </c>
       <c r="T13" t="n">
-        <v>80.6889413296188</v>
+        <v>80.68894132961884</v>
       </c>
       <c r="U13" t="n">
         <v>135.3082370038742</v>
@@ -1591,10 +1591,10 @@
         <v>134.2995837637581</v>
       </c>
       <c r="X13" t="n">
-        <v>79.94468575956117</v>
+        <v>79.94468575956122</v>
       </c>
       <c r="Y13" t="n">
-        <v>70.81955351562885</v>
+        <v>70.81955351562891</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>229.1191673765038</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>241.8426089909373</v>
+        <v>241.8426089909375</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>261.0144250789147</v>
       </c>
       <c r="G14" t="n">
-        <v>262.3409051157628</v>
+        <v>262.340905115763</v>
       </c>
       <c r="H14" t="n">
-        <v>174.2835417775413</v>
+        <v>174.2835417775415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.5342535390979</v>
+        <v>22.5342535390981</v>
       </c>
       <c r="T14" t="n">
-        <v>70.46388924261846</v>
+        <v>70.46388924261866</v>
       </c>
       <c r="U14" t="n">
-        <v>103.2926861902831</v>
+        <v>103.2926861902833</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>78.67788598485075</v>
       </c>
       <c r="W14" t="n">
-        <v>209.9143271369581</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>141.269999716208</v>
+        <v>240.6111831659037</v>
       </c>
     </row>
     <row r="15">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.829994649431399</v>
+        <v>8.829994649431598</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>47.66387415005834</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>56.52047122575469</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>145.2410726443114</v>
       </c>
       <c r="T15" t="n">
-        <v>36.49439094626069</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U15" t="n">
-        <v>67.29323155474314</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>99.10529270424404</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>41.60085938290007</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.72456129351914</v>
+        <v>32.72456129351934</v>
       </c>
       <c r="C16" t="n">
-        <v>18.92455613891963</v>
+        <v>18.92455613891983</v>
       </c>
       <c r="D16" t="n">
-        <v>2.545920536498016</v>
+        <v>2.545920536498215</v>
       </c>
       <c r="E16" t="n">
-        <v>1.493670392277465</v>
+        <v>1.493670392277664</v>
       </c>
       <c r="F16" t="n">
-        <v>1.960594720463774</v>
+        <v>1.960594720463973</v>
       </c>
       <c r="G16" t="n">
-        <v>17.96311329697617</v>
+        <v>17.96311329697637</v>
       </c>
       <c r="H16" t="n">
-        <v>6.363700576783305</v>
+        <v>6.363700576783504</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.83398394224573</v>
+        <v>57.83398394224593</v>
       </c>
       <c r="T16" t="n">
-        <v>80.68894132961874</v>
+        <v>80.68894132961894</v>
       </c>
       <c r="U16" t="n">
-        <v>135.3082370038741</v>
+        <v>135.3082370038743</v>
       </c>
       <c r="V16" t="n">
-        <v>109.1326976931447</v>
+        <v>109.1326976931449</v>
       </c>
       <c r="W16" t="n">
-        <v>134.299583763758</v>
+        <v>134.2995837637582</v>
       </c>
       <c r="X16" t="n">
-        <v>79.94468575956111</v>
+        <v>79.94468575956131</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.8195535156288</v>
+        <v>70.819553515629</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.9083003675343</v>
+        <v>145.9083003675344</v>
       </c>
       <c r="C17" t="n">
         <v>133.9196173252161</v>
@@ -1859,7 +1859,7 @@
         <v>167.1413550644751</v>
       </c>
       <c r="H17" t="n">
-        <v>79.08399172625271</v>
+        <v>79.0839917262536</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.093136138995353</v>
+        <v>8.093136138995391</v>
       </c>
       <c r="V17" t="n">
-        <v>89.41467760771346</v>
+        <v>89.41467760771349</v>
       </c>
       <c r="W17" t="n">
         <v>114.7147770856704</v>
@@ -1910,7 +1910,7 @@
         <v>134.015035318417</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.4116331146157</v>
+        <v>145.4116331146158</v>
       </c>
     </row>
     <row r="18">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>15.88617591353279</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>127.1165548494722</v>
@@ -1941,7 +1941,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>56.52047122575469</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         <v>145.2410726443114</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U18" t="n">
-        <v>216.28848525876</v>
+        <v>35.39082481230786</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>155.3589542808002</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.5756943977516</v>
       </c>
       <c r="J19" t="n">
         <v>40.21324716010344</v>
@@ -2047,22 +2047,22 @@
         <v>15.36025740485484</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S19" t="n">
-        <v>50.77882063081212</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>40.10868695258639</v>
+        <v>284.303490707891</v>
       </c>
       <c r="V19" t="n">
-        <v>13.933147641857</v>
+        <v>100.6629019207607</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>39.10003371247029</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.9083003675343</v>
+        <v>145.9083003675344</v>
       </c>
       <c r="C20" t="n">
         <v>133.9196173252161</v>
@@ -2096,7 +2096,7 @@
         <v>167.1413550644751</v>
       </c>
       <c r="H20" t="n">
-        <v>79.08399172625357</v>
+        <v>79.0839917262536</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.093136138995353</v>
+        <v>8.093136138995382</v>
       </c>
       <c r="V20" t="n">
-        <v>89.41467760771346</v>
+        <v>89.41467760771349</v>
       </c>
       <c r="W20" t="n">
-        <v>114.7147770856704</v>
+        <v>114.7147770856705</v>
       </c>
       <c r="X20" t="n">
         <v>134.015035318417</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.4116331146157</v>
+        <v>145.4116331146158</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>88.92438665215522</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>56.52047122575469</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>39.02901935393511</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T21" t="n">
         <v>185.4896446502776</v>
       </c>
       <c r="U21" t="n">
-        <v>216.28848525876</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2223,10 +2223,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>132.8850128647537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.36025740485484</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.6841950336356</v>
       </c>
       <c r="U22" t="n">
-        <v>232.9610076339919</v>
+        <v>284.303490707891</v>
       </c>
       <c r="V22" t="n">
-        <v>13.933147641857</v>
+        <v>45.76764844498016</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>39.10003371247029</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.9083003675343</v>
+        <v>145.9083003675344</v>
       </c>
       <c r="C23" t="n">
         <v>133.9196173252161</v>
@@ -2333,7 +2333,7 @@
         <v>167.1413550644751</v>
       </c>
       <c r="H23" t="n">
-        <v>79.08399172625357</v>
+        <v>79.0839917262536</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.093136138995353</v>
+        <v>8.093136138995382</v>
       </c>
       <c r="V23" t="n">
-        <v>89.41467760771346</v>
+        <v>89.41467760771349</v>
       </c>
       <c r="W23" t="n">
         <v>114.7147770856704</v>
@@ -2384,7 +2384,7 @@
         <v>134.015035318417</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.4116331146157</v>
+        <v>145.4116331146158</v>
       </c>
     </row>
     <row r="24">
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>121.9135523622048</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>68.75559512256173</v>
       </c>
       <c r="G24" t="n">
         <v>127.1165548494722</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S24" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>216.28848525876</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>13.81914598701865</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>84.86020897384373</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>15.36025740485484</v>
       </c>
       <c r="R25" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T25" t="n">
         <v>229.6841950336356</v>
       </c>
       <c r="U25" t="n">
-        <v>40.10868695258639</v>
+        <v>40.10868695258642</v>
       </c>
       <c r="V25" t="n">
-        <v>13.933147641857</v>
+        <v>13.93314764185703</v>
       </c>
       <c r="W25" t="n">
-        <v>39.10003371247026</v>
+        <v>39.10003371247029</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>288.9838039006341</v>
+        <v>288.9838039006343</v>
       </c>
       <c r="C26" t="n">
-        <v>276.9951208583159</v>
+        <v>276.995120858316</v>
       </c>
       <c r="D26" t="n">
-        <v>267.9764249028439</v>
+        <v>267.976424902844</v>
       </c>
       <c r="E26" t="n">
-        <v>289.7185624727493</v>
+        <v>289.7185624727495</v>
       </c>
       <c r="F26" t="n">
-        <v>308.8903785607265</v>
+        <v>308.8903785607267</v>
       </c>
       <c r="G26" t="n">
-        <v>310.2168585975749</v>
+        <v>310.216858597575</v>
       </c>
       <c r="H26" t="n">
-        <v>222.1594952593533</v>
+        <v>222.1594952593535</v>
       </c>
       <c r="I26" t="n">
-        <v>46.57653758629991</v>
+        <v>46.57653758630005</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.41020702090995</v>
+        <v>70.41020702091009</v>
       </c>
       <c r="T26" t="n">
-        <v>118.3398427244305</v>
+        <v>118.3398427244307</v>
       </c>
       <c r="U26" t="n">
-        <v>151.1686396720951</v>
+        <v>151.1686396720953</v>
       </c>
       <c r="V26" t="n">
-        <v>232.4901811408132</v>
+        <v>232.4901811408134</v>
       </c>
       <c r="W26" t="n">
-        <v>257.7902806187701</v>
+        <v>257.7902806187703</v>
       </c>
       <c r="X26" t="n">
-        <v>277.0905388515167</v>
+        <v>277.0905388515169</v>
       </c>
       <c r="Y26" t="n">
-        <v>288.4871366477155</v>
+        <v>288.4871366477157</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.60051477533119</v>
+        <v>80.60051477533133</v>
       </c>
       <c r="C28" t="n">
-        <v>66.80050962073167</v>
+        <v>66.80050962073182</v>
       </c>
       <c r="D28" t="n">
-        <v>50.42187401831006</v>
+        <v>50.42187401831021</v>
       </c>
       <c r="E28" t="n">
-        <v>49.36962387408951</v>
+        <v>49.36962387408965</v>
       </c>
       <c r="F28" t="n">
-        <v>49.83654820227582</v>
+        <v>49.83654820227596</v>
       </c>
       <c r="G28" t="n">
-        <v>65.83906677878821</v>
+        <v>65.83906677878836</v>
       </c>
       <c r="H28" t="n">
-        <v>54.23965405859536</v>
+        <v>54.23965405859549</v>
       </c>
       <c r="I28" t="n">
-        <v>33.45639417554676</v>
+        <v>33.4563941755469</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66887443723272</v>
+        <v>34.66887443723286</v>
       </c>
       <c r="S28" t="n">
-        <v>105.7099374240578</v>
+        <v>105.7099374240579</v>
       </c>
       <c r="T28" t="n">
-        <v>128.5648948114308</v>
+        <v>128.5648948114309</v>
       </c>
       <c r="U28" t="n">
-        <v>183.1841904856862</v>
+        <v>183.1841904856863</v>
       </c>
       <c r="V28" t="n">
-        <v>157.0086511749568</v>
+        <v>157.0086511749569</v>
       </c>
       <c r="W28" t="n">
-        <v>182.17553724557</v>
+        <v>182.1755372455702</v>
       </c>
       <c r="X28" t="n">
-        <v>127.8206392413732</v>
+        <v>127.8206392413733</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.6955069974408</v>
+        <v>118.695506997441</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.41020702090997</v>
+        <v>70.41020702090995</v>
       </c>
       <c r="T29" t="n">
         <v>118.3398427244305</v>
@@ -2889,7 +2889,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I30" t="n">
-        <v>56.52047122575469</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.02901935393511</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S30" t="n">
         <v>145.2410726443114</v>
@@ -2965,10 +2965,10 @@
         <v>65.83906677878822</v>
       </c>
       <c r="H31" t="n">
-        <v>54.23965405859538</v>
+        <v>54.23965405859536</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45639417554678</v>
+        <v>33.45639417554676</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66887443723273</v>
+        <v>34.66887443723272</v>
       </c>
       <c r="S31" t="n">
         <v>105.7099374240578</v>
@@ -3035,19 +3035,19 @@
         <v>267.9764249028439</v>
       </c>
       <c r="E32" t="n">
-        <v>289.7185624727493</v>
+        <v>289.7185624727494</v>
       </c>
       <c r="F32" t="n">
-        <v>308.8903785607265</v>
+        <v>308.8903785607266</v>
       </c>
       <c r="G32" t="n">
         <v>310.2168585975749</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1594952593533</v>
+        <v>222.1594952593534</v>
       </c>
       <c r="I32" t="n">
-        <v>46.57653758629991</v>
+        <v>46.57653758629993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.41020702090995</v>
+        <v>70.41020702090998</v>
       </c>
       <c r="T32" t="n">
         <v>118.3398427244305</v>
       </c>
       <c r="U32" t="n">
-        <v>151.1686396720951</v>
+        <v>151.1686396720952</v>
       </c>
       <c r="V32" t="n">
-        <v>232.4901811408132</v>
+        <v>232.4901811408133</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7902806187701</v>
+        <v>257.7902806187702</v>
       </c>
       <c r="X32" t="n">
-        <v>277.0905388515167</v>
+        <v>277.0905388515168</v>
       </c>
       <c r="Y32" t="n">
         <v>288.4871366477155</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.60051477533119</v>
+        <v>80.60051477533122</v>
       </c>
       <c r="C34" t="n">
-        <v>66.80050962073167</v>
+        <v>66.8005096207317</v>
       </c>
       <c r="D34" t="n">
-        <v>50.42187401831006</v>
+        <v>50.42187401831009</v>
       </c>
       <c r="E34" t="n">
-        <v>49.36962387408951</v>
+        <v>49.36962387408954</v>
       </c>
       <c r="F34" t="n">
-        <v>49.83654820227582</v>
+        <v>49.83654820227585</v>
       </c>
       <c r="G34" t="n">
-        <v>65.83906677878822</v>
+        <v>65.83906677878825</v>
       </c>
       <c r="H34" t="n">
-        <v>54.23965405859535</v>
+        <v>54.23965405859538</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45639417554676</v>
+        <v>33.45639417554678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66887443723272</v>
+        <v>34.66887443723274</v>
       </c>
       <c r="S34" t="n">
         <v>105.7099374240578</v>
@@ -3247,13 +3247,13 @@
         <v>157.0086511749568</v>
       </c>
       <c r="W34" t="n">
-        <v>182.17553724557</v>
+        <v>182.1755372455701</v>
       </c>
       <c r="X34" t="n">
         <v>127.8206392413732</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.6955069974408</v>
+        <v>118.6955069974409</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>218.5735968797241</v>
+        <v>218.5735968797242</v>
       </c>
       <c r="C35" t="n">
         <v>206.5849138374059</v>
@@ -3278,7 +3278,7 @@
         <v>238.4801715398166</v>
       </c>
       <c r="G35" t="n">
-        <v>239.8066515766648</v>
+        <v>239.8066515766649</v>
       </c>
       <c r="H35" t="n">
         <v>151.7492882384434</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>47.92963570352052</v>
+        <v>47.92963570352055</v>
       </c>
       <c r="U35" t="n">
-        <v>80.75843265118516</v>
+        <v>80.75843265118517</v>
       </c>
       <c r="V35" t="n">
         <v>162.0799741199033</v>
@@ -3332,7 +3332,7 @@
         <v>206.6803318306068</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.0769296268055</v>
+        <v>218.0769296268056</v>
       </c>
     </row>
     <row r="36">
@@ -3408,7 +3408,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
-        <v>119.6091649808391</v>
+        <v>119.60916498084</v>
       </c>
       <c r="Y36" t="n">
         <v>190.5961130869169</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.19030775442121</v>
+        <v>10.19030775442124</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>42.63581932673264</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>15.36025740485484</v>
       </c>
       <c r="R37" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>35.2997304031478</v>
+        <v>35.29973040314783</v>
       </c>
       <c r="T37" t="n">
-        <v>58.15468779052081</v>
+        <v>58.15468779052084</v>
       </c>
       <c r="U37" t="n">
-        <v>191.1511353751862</v>
+        <v>112.7739834647762</v>
       </c>
       <c r="V37" t="n">
-        <v>86.5984441540468</v>
+        <v>86.59844415404683</v>
       </c>
       <c r="W37" t="n">
         <v>111.7653302246601</v>
       </c>
       <c r="X37" t="n">
-        <v>57.41043222046318</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.28529997653087</v>
+        <v>48.28529997653089</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>218.5735968797241</v>
+        <v>218.5735968797242</v>
       </c>
       <c r="C38" t="n">
-        <v>206.5849138374058</v>
+        <v>206.5849138374059</v>
       </c>
       <c r="D38" t="n">
-        <v>197.5662178819338</v>
+        <v>197.5662178819339</v>
       </c>
       <c r="E38" t="n">
         <v>219.3083554518394</v>
       </c>
       <c r="F38" t="n">
-        <v>238.4801715398165</v>
+        <v>238.4801715398166</v>
       </c>
       <c r="G38" t="n">
-        <v>239.8066515766648</v>
+        <v>239.8066515766649</v>
       </c>
       <c r="H38" t="n">
-        <v>151.7492882384433</v>
+        <v>151.7492882384434</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>47.9296357035205</v>
+        <v>47.92963570352055</v>
       </c>
       <c r="U38" t="n">
-        <v>80.75843265118512</v>
+        <v>80.75843265118519</v>
       </c>
       <c r="V38" t="n">
-        <v>162.0799741199032</v>
+        <v>162.0799741199033</v>
       </c>
       <c r="W38" t="n">
-        <v>187.3800735978601</v>
+        <v>187.3800735978602</v>
       </c>
       <c r="X38" t="n">
-        <v>206.6803318306067</v>
+        <v>206.6803318306068</v>
       </c>
       <c r="Y38" t="n">
-        <v>218.0769296268055</v>
+        <v>218.0769296268056</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3597,7 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H39" t="n">
-        <v>19.47429228221041</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I39" t="n">
         <v>56.52047122575469</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>145.2410726443114</v>
+        <v>107.9414387381033</v>
       </c>
       <c r="T39" t="n">
         <v>185.4896446502776</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.19030775442118</v>
+        <v>10.19030775442124</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>77.98440973418771</v>
+        <v>78.56973555022165</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.29973040314777</v>
+        <v>35.29973040314783</v>
       </c>
       <c r="T40" t="n">
-        <v>58.15468779052078</v>
+        <v>58.15468779052084</v>
       </c>
       <c r="U40" t="n">
         <v>112.7739834647762</v>
       </c>
       <c r="V40" t="n">
-        <v>86.59844415404677</v>
+        <v>86.59844415404683</v>
       </c>
       <c r="W40" t="n">
-        <v>111.76533022466</v>
+        <v>111.7653302246601</v>
       </c>
       <c r="X40" t="n">
-        <v>57.41043222046315</v>
+        <v>57.41043222046321</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.28529997653084</v>
+        <v>48.28529997653089</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>218.5735968797241</v>
       </c>
       <c r="C41" t="n">
-        <v>206.5849138374058</v>
+        <v>206.5849138374059</v>
       </c>
       <c r="D41" t="n">
-        <v>197.5662178819338</v>
+        <v>197.5662178819339</v>
       </c>
       <c r="E41" t="n">
         <v>219.3083554518394</v>
       </c>
       <c r="F41" t="n">
-        <v>238.4801715398165</v>
+        <v>238.4801715398166</v>
       </c>
       <c r="G41" t="n">
-        <v>239.8066515766648</v>
+        <v>239.8066515766649</v>
       </c>
       <c r="H41" t="n">
-        <v>151.7492882384433</v>
+        <v>151.7492882384434</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>47.9296357035205</v>
+        <v>47.92963570352052</v>
       </c>
       <c r="U41" t="n">
-        <v>80.75843265118513</v>
+        <v>80.75843265118516</v>
       </c>
       <c r="V41" t="n">
-        <v>162.0799741199032</v>
+        <v>162.0799741199033</v>
       </c>
       <c r="W41" t="n">
-        <v>187.3800735978601</v>
+        <v>187.3800735978602</v>
       </c>
       <c r="X41" t="n">
-        <v>206.6803318306067</v>
+        <v>206.6803318306068</v>
       </c>
       <c r="Y41" t="n">
         <v>218.0769296268055</v>
@@ -3825,7 +3825,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
-        <v>145.5577298436975</v>
+        <v>69.22907658355278</v>
       </c>
       <c r="F42" t="n">
         <v>133.3468600696244</v>
@@ -3885,7 +3885,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>114.2674598267722</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.19030775442118</v>
+        <v>10.19030775442121</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.36025740485484</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>35.29973040314777</v>
+        <v>35.2997304031478</v>
       </c>
       <c r="T43" t="n">
-        <v>58.15468779052078</v>
+        <v>58.15468779052081</v>
       </c>
       <c r="U43" t="n">
-        <v>284.303490707891</v>
+        <v>112.7739834647762</v>
       </c>
       <c r="V43" t="n">
-        <v>86.59844415404677</v>
+        <v>86.5984441540468</v>
       </c>
       <c r="W43" t="n">
-        <v>111.76533022466</v>
+        <v>169.7614069562477</v>
       </c>
       <c r="X43" t="n">
-        <v>100.0462515471961</v>
+        <v>57.41043222046318</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.28529997653084</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>47.92963570352055</v>
+        <v>47.92963570352058</v>
       </c>
       <c r="U44" t="n">
-        <v>80.75843265118517</v>
+        <v>80.75843265118522</v>
       </c>
       <c r="V44" t="n">
         <v>162.0799741199033</v>
@@ -4068,13 +4068,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.1165548494722</v>
+        <v>50.78790158932753</v>
       </c>
       <c r="H45" t="n">
         <v>95.80294554235505</v>
       </c>
       <c r="I45" t="n">
-        <v>56.52047122575468</v>
+        <v>56.52047122575469</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.02901935393508</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S45" t="n">
-        <v>68.91241938416688</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T45" t="n">
         <v>185.4896446502776</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.19030775442124</v>
+        <v>10.19030775442127</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>93.73740931526496</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>78.37715191040948</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.36025740485484</v>
       </c>
       <c r="R46" t="n">
         <v>135.7881746594375</v>
       </c>
       <c r="S46" t="n">
-        <v>35.29973040314782</v>
+        <v>35.29973040314785</v>
       </c>
       <c r="T46" t="n">
-        <v>58.15468779052083</v>
+        <v>58.15468779052087</v>
       </c>
       <c r="U46" t="n">
-        <v>112.7739834647762</v>
+        <v>112.7739834647763</v>
       </c>
       <c r="V46" t="n">
-        <v>86.59844415404683</v>
+        <v>86.59844415404686</v>
       </c>
       <c r="W46" t="n">
         <v>111.7653302246601</v>
       </c>
       <c r="X46" t="n">
-        <v>57.41043222046321</v>
+        <v>57.41043222046324</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.28529997653089</v>
+        <v>48.28529997653092</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>826.4073176876882</v>
+        <v>924.787086743704</v>
       </c>
       <c r="C11" t="n">
-        <v>594.9738152871791</v>
+        <v>693.3535843431949</v>
       </c>
       <c r="D11" t="n">
-        <v>594.9738152871791</v>
+        <v>471.029875837102</v>
       </c>
       <c r="E11" t="n">
-        <v>350.6883516599696</v>
+        <v>471.029875837102</v>
       </c>
       <c r="F11" t="n">
-        <v>350.6883516599696</v>
+        <v>471.029875837102</v>
       </c>
       <c r="G11" t="n">
-        <v>206.0390625888567</v>
+        <v>206.0390625888566</v>
       </c>
       <c r="H11" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I11" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J11" t="n">
-        <v>152.9789828377824</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="K11" t="n">
-        <v>469.5331892888865</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="L11" t="n">
-        <v>840.7223166067208</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="M11" t="n">
-        <v>840.7223166067208</v>
+        <v>283.5313607309288</v>
       </c>
       <c r="N11" t="n">
-        <v>969.2616688118587</v>
+        <v>654.7204880487634</v>
       </c>
       <c r="O11" t="n">
-        <v>1340.450796129693</v>
+        <v>1025.909615366598</v>
       </c>
       <c r="P11" t="n">
-        <v>1340.450796129693</v>
+        <v>1340.450796129694</v>
       </c>
       <c r="Q11" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="R11" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="S11" t="n">
-        <v>1476.992177507312</v>
+        <v>1476.992177507313</v>
       </c>
       <c r="T11" t="n">
-        <v>1405.816531807697</v>
+        <v>1405.816531807699</v>
       </c>
       <c r="U11" t="n">
-        <v>1301.480485150847</v>
+        <v>1405.816531807699</v>
       </c>
       <c r="V11" t="n">
-        <v>1301.480485150847</v>
+        <v>1368.351644831243</v>
       </c>
       <c r="W11" t="n">
-        <v>1301.480485150847</v>
+        <v>1156.316970955527</v>
       </c>
       <c r="X11" t="n">
-        <v>1069.950600939024</v>
+        <v>924.787086743704</v>
       </c>
       <c r="Y11" t="n">
-        <v>1069.950600939024</v>
+        <v>924.787086743704</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>605.1829030745137</v>
+        <v>191.6987537544259</v>
       </c>
       <c r="C12" t="n">
-        <v>593.979486582152</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="D12" t="n">
-        <v>593.979486582152</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="E12" t="n">
-        <v>446.9514766390233</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="F12" t="n">
-        <v>312.2576785888976</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="G12" t="n">
-        <v>183.8571181348854</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="H12" t="n">
-        <v>87.08646607190043</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I12" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J12" t="n">
-        <v>120.6157572122717</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="K12" t="n">
-        <v>120.6157572122717</v>
+        <v>187.3868833520197</v>
       </c>
       <c r="L12" t="n">
-        <v>491.8048845301059</v>
+        <v>558.5760106698542</v>
       </c>
       <c r="M12" t="n">
-        <v>862.9940118479401</v>
+        <v>929.7651379876888</v>
       </c>
       <c r="N12" t="n">
-        <v>1234.183139165774</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="O12" t="n">
-        <v>1300.954265305522</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="P12" t="n">
-        <v>1300.954265305522</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q12" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="R12" t="n">
-        <v>1460.330797896366</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="S12" t="n">
-        <v>1313.622643710193</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="T12" t="n">
-        <v>1126.25936628567</v>
+        <v>1312.390772344506</v>
       </c>
       <c r="U12" t="n">
-        <v>1058.286405119263</v>
+        <v>1093.917554911415</v>
       </c>
       <c r="V12" t="n">
-        <v>980.3910388342802</v>
+        <v>865.5219323597489</v>
       </c>
       <c r="W12" t="n">
-        <v>739.0751700675902</v>
+        <v>624.206063593059</v>
       </c>
       <c r="X12" t="n">
-        <v>656.1231596728284</v>
+        <v>426.2890754708535</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.1020895890908</v>
+        <v>351.1181965356868</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.74412711853054</v>
+        <v>79.74412711853095</v>
       </c>
       <c r="C13" t="n">
-        <v>60.62841384689457</v>
+        <v>60.62841384689484</v>
       </c>
       <c r="D13" t="n">
-        <v>58.05677694134093</v>
+        <v>58.05677694134117</v>
       </c>
       <c r="E13" t="n">
-        <v>56.54801896934342</v>
+        <v>56.5480189693436</v>
       </c>
       <c r="F13" t="n">
-        <v>54.56762026180414</v>
+        <v>54.56762026180432</v>
       </c>
       <c r="G13" t="n">
-        <v>36.4230613759698</v>
+        <v>36.42306137596989</v>
       </c>
       <c r="H13" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I13" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J13" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="K13" t="n">
-        <v>94.9058890789962</v>
+        <v>94.90588907899622</v>
       </c>
       <c r="L13" t="n">
         <v>235.5746640210047</v>
@@ -5209,40 +5209,40 @@
         <v>395.8076110331838</v>
       </c>
       <c r="N13" t="n">
-        <v>555.4650341729186</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O13" t="n">
-        <v>692.015952423721</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P13" t="n">
-        <v>787.5746769178749</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="Q13" t="n">
-        <v>787.5746769178749</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="R13" t="n">
-        <v>787.5746769178749</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="S13" t="n">
-        <v>729.1565113196468</v>
+        <v>729.1565113196469</v>
       </c>
       <c r="T13" t="n">
-        <v>647.6525301786177</v>
+        <v>647.6525301786179</v>
       </c>
       <c r="U13" t="n">
-        <v>510.9775433060175</v>
+        <v>510.9775433060181</v>
       </c>
       <c r="V13" t="n">
-        <v>400.7424951311237</v>
+        <v>400.7424951311244</v>
       </c>
       <c r="W13" t="n">
-        <v>265.0863499152065</v>
+        <v>265.0863499152072</v>
       </c>
       <c r="X13" t="n">
-        <v>184.334142077266</v>
+        <v>184.3341420772665</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.7992395362267</v>
+        <v>112.7992395362271</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>946.7488418648202</v>
+        <v>978.9662738874581</v>
       </c>
       <c r="C14" t="n">
-        <v>715.3153394643114</v>
+        <v>978.9662738874581</v>
       </c>
       <c r="D14" t="n">
-        <v>715.3153394643114</v>
+        <v>978.9662738874581</v>
       </c>
       <c r="E14" t="n">
-        <v>471.0298758371019</v>
+        <v>734.6808102602486</v>
       </c>
       <c r="F14" t="n">
-        <v>471.0298758371019</v>
+        <v>471.0298758371023</v>
       </c>
       <c r="G14" t="n">
-        <v>206.0390625888566</v>
+        <v>206.0390625888568</v>
       </c>
       <c r="H14" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I14" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J14" t="n">
-        <v>29.99508099538055</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="K14" t="n">
-        <v>346.5492874464847</v>
+        <v>469.5331892888865</v>
       </c>
       <c r="L14" t="n">
-        <v>717.738414764319</v>
+        <v>840.7223166067211</v>
       </c>
       <c r="M14" t="n">
-        <v>1088.927542082153</v>
+        <v>1211.911443924556</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.116669399988</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="O14" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="P14" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="Q14" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="R14" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="S14" t="n">
         <v>1476.992177507313</v>
       </c>
       <c r="T14" t="n">
-        <v>1405.816531807698</v>
+        <v>1405.816531807699</v>
       </c>
       <c r="U14" t="n">
-        <v>1301.480485150847</v>
+        <v>1301.480485150846</v>
       </c>
       <c r="V14" t="n">
-        <v>1301.480485150847</v>
+        <v>1222.007873044937</v>
       </c>
       <c r="W14" t="n">
-        <v>1089.445811275131</v>
+        <v>1222.007873044937</v>
       </c>
       <c r="X14" t="n">
-        <v>1089.445811275131</v>
+        <v>1222.007873044937</v>
       </c>
       <c r="Y14" t="n">
-        <v>946.7488418648202</v>
+        <v>978.9662738874581</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.4274378468474</v>
+        <v>78.14040841968193</v>
       </c>
       <c r="C15" t="n">
-        <v>469.7237650878021</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="D15" t="n">
-        <v>330.8851280780141</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="E15" t="n">
-        <v>183.8571181348854</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="F15" t="n">
-        <v>183.8571181348854</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="G15" t="n">
-        <v>183.8571181348854</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="H15" t="n">
-        <v>87.08646607190045</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I15" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J15" t="n">
         <v>120.6157572122717</v>
@@ -5361,46 +5361,46 @@
         <v>402.0075457117349</v>
       </c>
       <c r="L15" t="n">
-        <v>773.1966730295692</v>
+        <v>402.0075457117349</v>
       </c>
       <c r="M15" t="n">
-        <v>929.7651379876881</v>
+        <v>402.0075457117349</v>
       </c>
       <c r="N15" t="n">
-        <v>929.7651379876881</v>
+        <v>566.2933322920189</v>
       </c>
       <c r="O15" t="n">
-        <v>1300.954265305523</v>
+        <v>937.4824596098535</v>
       </c>
       <c r="P15" t="n">
         <v>1300.954265305523</v>
       </c>
       <c r="Q15" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="R15" t="n">
-        <v>1460.330797896366</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="S15" t="n">
-        <v>1313.622643710193</v>
+        <v>1353.045895582856</v>
       </c>
       <c r="T15" t="n">
-        <v>1276.759622552354</v>
+        <v>1165.682618158333</v>
       </c>
       <c r="U15" t="n">
-        <v>1208.786661385947</v>
+        <v>947.2094007252419</v>
       </c>
       <c r="V15" t="n">
-        <v>980.3910388342806</v>
+        <v>718.8137781735759</v>
       </c>
       <c r="W15" t="n">
-        <v>880.2846825673674</v>
+        <v>477.4979094068859</v>
       </c>
       <c r="X15" t="n">
-        <v>682.367694445162</v>
+        <v>279.5809212846805</v>
       </c>
       <c r="Y15" t="n">
-        <v>640.3466243614246</v>
+        <v>87.05959493425931</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.74412711853041</v>
+        <v>79.74412711853164</v>
       </c>
       <c r="C16" t="n">
-        <v>60.62841384689442</v>
+        <v>60.62841384689545</v>
       </c>
       <c r="D16" t="n">
-        <v>58.05677694134087</v>
+        <v>58.0567769413417</v>
       </c>
       <c r="E16" t="n">
-        <v>56.54801896934343</v>
+        <v>56.54801896934406</v>
       </c>
       <c r="F16" t="n">
-        <v>54.56762026180427</v>
+        <v>54.56762026180469</v>
       </c>
       <c r="G16" t="n">
-        <v>36.42306137596975</v>
+        <v>36.42306137596997</v>
       </c>
       <c r="H16" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I16" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J16" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="K16" t="n">
-        <v>94.90588907899618</v>
+        <v>94.90588907899621</v>
       </c>
       <c r="L16" t="n">
         <v>235.5746640210047</v>
@@ -5455,31 +5455,31 @@
         <v>787.574676917875</v>
       </c>
       <c r="Q16" t="n">
-        <v>787.5746769178743</v>
+        <v>787.574676917875</v>
       </c>
       <c r="R16" t="n">
-        <v>787.5746769178743</v>
+        <v>787.5746769178772</v>
       </c>
       <c r="S16" t="n">
-        <v>729.1565113196463</v>
+        <v>729.156511319649</v>
       </c>
       <c r="T16" t="n">
-        <v>647.6525301786172</v>
+        <v>647.6525301786197</v>
       </c>
       <c r="U16" t="n">
-        <v>510.9775433060171</v>
+        <v>510.9775433060194</v>
       </c>
       <c r="V16" t="n">
-        <v>400.7424951311234</v>
+        <v>400.7424951311255</v>
       </c>
       <c r="W16" t="n">
-        <v>265.0863499152063</v>
+        <v>265.0863499152081</v>
       </c>
       <c r="X16" t="n">
-        <v>184.3341420772657</v>
+        <v>184.3341420772674</v>
       </c>
       <c r="Y16" t="n">
-        <v>112.7992395362265</v>
+        <v>112.7992395362279</v>
       </c>
     </row>
     <row r="17">
@@ -5489,70 +5489,70 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>855.756514786254</v>
+        <v>855.7565147862543</v>
       </c>
       <c r="C17" t="n">
-        <v>720.4841740537124</v>
+        <v>720.4841740537128</v>
       </c>
       <c r="D17" t="n">
-        <v>594.3216272155871</v>
+        <v>594.3216272155873</v>
       </c>
       <c r="E17" t="n">
-        <v>446.1973252563452</v>
+        <v>446.1973252563453</v>
       </c>
       <c r="F17" t="n">
-        <v>278.7075525011666</v>
+        <v>278.7075525011667</v>
       </c>
       <c r="G17" t="n">
-        <v>109.8779009208884</v>
+        <v>109.8779009208893</v>
       </c>
       <c r="H17" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I17" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J17" t="n">
-        <v>29.99508099538055</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="K17" t="n">
-        <v>283.5313607309284</v>
+        <v>469.5331892888865</v>
       </c>
       <c r="L17" t="n">
-        <v>654.7204880487627</v>
+        <v>840.7223166067211</v>
       </c>
       <c r="M17" t="n">
-        <v>654.7204880487627</v>
+        <v>1211.911443924556</v>
       </c>
       <c r="N17" t="n">
-        <v>654.7204880487627</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="O17" t="n">
-        <v>1025.909615366597</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="P17" t="n">
-        <v>1340.450796129693</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="Q17" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="R17" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="S17" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="T17" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="U17" t="n">
         <v>1491.579164780144</v>
       </c>
       <c r="V17" t="n">
-        <v>1401.261308610736</v>
+        <v>1401.261308610737</v>
       </c>
       <c r="W17" t="n">
-        <v>1285.387796402988</v>
+        <v>1285.387796402989</v>
       </c>
       <c r="X17" t="n">
         <v>1150.019073859133</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>432.9166086083249</v>
+        <v>312.2576785888976</v>
       </c>
       <c r="C18" t="n">
-        <v>271.2129358492796</v>
+        <v>312.2576785888976</v>
       </c>
       <c r="D18" t="n">
-        <v>271.2129358492796</v>
+        <v>312.2576785888976</v>
       </c>
       <c r="E18" t="n">
-        <v>271.2129358492796</v>
+        <v>312.2576785888976</v>
       </c>
       <c r="F18" t="n">
-        <v>255.1662935123778</v>
+        <v>312.2576785888976</v>
       </c>
       <c r="G18" t="n">
-        <v>126.7657330583655</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="H18" t="n">
-        <v>29.99508099538055</v>
+        <v>87.08646607190046</v>
       </c>
       <c r="I18" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J18" t="n">
-        <v>29.99508099538055</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="K18" t="n">
-        <v>29.99508099538055</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="L18" t="n">
-        <v>401.1842083132149</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="M18" t="n">
-        <v>566.2933322920182</v>
+        <v>195.1042049741844</v>
       </c>
       <c r="N18" t="n">
-        <v>566.2933322920182</v>
+        <v>566.2933322920189</v>
       </c>
       <c r="O18" t="n">
-        <v>937.4824596098526</v>
+        <v>937.4824596098535</v>
       </c>
       <c r="P18" t="n">
         <v>1300.954265305523</v>
       </c>
       <c r="Q18" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="R18" t="n">
-        <v>1460.330797896366</v>
+        <v>1460.330797896367</v>
       </c>
       <c r="S18" t="n">
-        <v>1313.622643710193</v>
+        <v>1313.622643710194</v>
       </c>
       <c r="T18" t="n">
-        <v>1313.622643710193</v>
+        <v>1126.259366285671</v>
       </c>
       <c r="U18" t="n">
-        <v>1095.149426277102</v>
+        <v>1090.511058394451</v>
       </c>
       <c r="V18" t="n">
-        <v>866.753803725436</v>
+        <v>862.1154358427851</v>
       </c>
       <c r="W18" t="n">
-        <v>625.437934958746</v>
+        <v>862.1154358427851</v>
       </c>
       <c r="X18" t="n">
-        <v>625.437934958746</v>
+        <v>664.1984477205797</v>
       </c>
       <c r="Y18" t="n">
-        <v>432.9166086083249</v>
+        <v>471.6771213701585</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>380.0234141927384</v>
+        <v>206.5495674174564</v>
       </c>
       <c r="C19" t="n">
-        <v>380.0234141927384</v>
+        <v>206.5495674174564</v>
       </c>
       <c r="D19" t="n">
-        <v>380.0234141927384</v>
+        <v>206.5495674174564</v>
       </c>
       <c r="E19" t="n">
-        <v>380.0234141927384</v>
+        <v>206.5495674174564</v>
       </c>
       <c r="F19" t="n">
-        <v>227.5427592185156</v>
+        <v>206.5495674174564</v>
       </c>
       <c r="G19" t="n">
-        <v>227.5427592185156</v>
+        <v>206.5495674174564</v>
       </c>
       <c r="H19" t="n">
-        <v>70.61452257124262</v>
+        <v>206.5495674174564</v>
       </c>
       <c r="I19" t="n">
-        <v>70.61452257124262</v>
+        <v>70.61452257124263</v>
       </c>
       <c r="J19" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="K19" t="n">
-        <v>94.90588907899618</v>
+        <v>94.90588907899621</v>
       </c>
       <c r="L19" t="n">
         <v>235.5746640210047</v>
@@ -5695,28 +5695,28 @@
         <v>772.0592653978196</v>
       </c>
       <c r="R19" t="n">
-        <v>772.0592653978196</v>
+        <v>634.8994930145493</v>
       </c>
       <c r="S19" t="n">
-        <v>720.7675273868982</v>
+        <v>634.8994930145493</v>
       </c>
       <c r="T19" t="n">
-        <v>720.7675273868982</v>
+        <v>634.8994930145493</v>
       </c>
       <c r="U19" t="n">
-        <v>680.2537021822656</v>
+        <v>347.7242498752655</v>
       </c>
       <c r="V19" t="n">
-        <v>666.1798156753393</v>
+        <v>246.0445509654062</v>
       </c>
       <c r="W19" t="n">
-        <v>380.0234141927384</v>
+        <v>206.5495674174564</v>
       </c>
       <c r="X19" t="n">
-        <v>380.0234141927384</v>
+        <v>206.5495674174564</v>
       </c>
       <c r="Y19" t="n">
-        <v>380.0234141927384</v>
+        <v>206.5495674174564</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>855.756514786254</v>
+        <v>855.7565147862547</v>
       </c>
       <c r="C20" t="n">
-        <v>720.4841740537124</v>
+        <v>720.4841740537131</v>
       </c>
       <c r="D20" t="n">
-        <v>594.3216272155871</v>
+        <v>594.3216272155878</v>
       </c>
       <c r="E20" t="n">
-        <v>446.1973252563452</v>
+        <v>446.1973252563457</v>
       </c>
       <c r="F20" t="n">
-        <v>278.7075525011666</v>
+        <v>278.7075525011671</v>
       </c>
       <c r="G20" t="n">
-        <v>109.8779009208892</v>
+        <v>109.8779009208893</v>
       </c>
       <c r="H20" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I20" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J20" t="n">
-        <v>71.64548705242839</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="K20" t="n">
-        <v>71.64548705242839</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="L20" t="n">
-        <v>442.8346143702627</v>
+        <v>401.1842083132152</v>
       </c>
       <c r="M20" t="n">
-        <v>442.8346143702627</v>
+        <v>772.3733356310497</v>
       </c>
       <c r="N20" t="n">
-        <v>814.0237416880971</v>
+        <v>1128.564922451194</v>
       </c>
       <c r="O20" t="n">
-        <v>1185.212869005931</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="P20" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="Q20" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="R20" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="S20" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="T20" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="U20" t="n">
-        <v>1491.579164780143</v>
+        <v>1491.579164780145</v>
       </c>
       <c r="V20" t="n">
-        <v>1401.261308610736</v>
+        <v>1401.261308610737</v>
       </c>
       <c r="W20" t="n">
-        <v>1285.387796402988</v>
+        <v>1285.387796402989</v>
       </c>
       <c r="X20" t="n">
-        <v>1150.019073859133</v>
+        <v>1150.019073859134</v>
       </c>
       <c r="Y20" t="n">
-        <v>1003.138636369622</v>
+        <v>1003.138636369623</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>450.5555259984229</v>
+        <v>458.6308868451097</v>
       </c>
       <c r="C21" t="n">
-        <v>450.5555259984229</v>
+        <v>458.6308868451097</v>
       </c>
       <c r="D21" t="n">
-        <v>311.716888988635</v>
+        <v>458.6308868451097</v>
       </c>
       <c r="E21" t="n">
-        <v>164.6888790455062</v>
+        <v>311.6028769019809</v>
       </c>
       <c r="F21" t="n">
-        <v>29.99508099538055</v>
+        <v>176.9090788518552</v>
       </c>
       <c r="G21" t="n">
-        <v>29.99508099538055</v>
+        <v>176.9090788518552</v>
       </c>
       <c r="H21" t="n">
-        <v>29.99508099538055</v>
+        <v>87.08646607190046</v>
       </c>
       <c r="I21" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J21" t="n">
         <v>120.6157572122717</v>
@@ -5835,46 +5835,46 @@
         <v>402.0075457117349</v>
       </c>
       <c r="L21" t="n">
-        <v>773.1966730295692</v>
+        <v>773.1966730295694</v>
       </c>
       <c r="M21" t="n">
-        <v>1136.282244073358</v>
+        <v>929.7651379876888</v>
       </c>
       <c r="N21" t="n">
-        <v>1136.282244073358</v>
+        <v>929.7651379876888</v>
       </c>
       <c r="O21" t="n">
-        <v>1136.282244073358</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="P21" t="n">
-        <v>1499.754049769028</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q21" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="R21" t="n">
-        <v>1460.330797896366</v>
+        <v>1460.330797896367</v>
       </c>
       <c r="S21" t="n">
-        <v>1460.330797896366</v>
+        <v>1313.622643710194</v>
       </c>
       <c r="T21" t="n">
-        <v>1272.967520471843</v>
+        <v>1126.259366285671</v>
       </c>
       <c r="U21" t="n">
-        <v>1054.494303038752</v>
+        <v>1126.259366285671</v>
       </c>
       <c r="V21" t="n">
-        <v>826.0986804870863</v>
+        <v>897.8637437340051</v>
       </c>
       <c r="W21" t="n">
-        <v>584.7828117203964</v>
+        <v>656.5478749673151</v>
       </c>
       <c r="X21" t="n">
-        <v>584.7828117203964</v>
+        <v>458.6308868451097</v>
       </c>
       <c r="Y21" t="n">
-        <v>450.5555259984229</v>
+        <v>458.6308868451097</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="C22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="D22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="E22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="F22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="G22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="H22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="K22" t="n">
-        <v>94.90588907899618</v>
+        <v>94.90588907899621</v>
       </c>
       <c r="L22" t="n">
         <v>235.5746640210047</v>
@@ -5929,31 +5929,31 @@
         <v>787.574676917875</v>
       </c>
       <c r="Q22" t="n">
-        <v>787.574676917875</v>
+        <v>772.0592653978196</v>
       </c>
       <c r="R22" t="n">
-        <v>787.574676917875</v>
+        <v>634.8994930145493</v>
       </c>
       <c r="S22" t="n">
-        <v>787.574676917875</v>
+        <v>634.8994930145493</v>
       </c>
       <c r="T22" t="n">
-        <v>787.574676917875</v>
+        <v>402.8952556068366</v>
       </c>
       <c r="U22" t="n">
-        <v>552.2605277926306</v>
+        <v>115.7200124675527</v>
       </c>
       <c r="V22" t="n">
-        <v>538.1866412857044</v>
+        <v>69.49006454333036</v>
       </c>
       <c r="W22" t="n">
-        <v>252.0302398031035</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="X22" t="n">
-        <v>252.0302398031035</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>855.756514786254</v>
+        <v>855.7565147862547</v>
       </c>
       <c r="C23" t="n">
-        <v>720.4841740537124</v>
+        <v>720.4841740537131</v>
       </c>
       <c r="D23" t="n">
-        <v>594.3216272155871</v>
+        <v>594.3216272155878</v>
       </c>
       <c r="E23" t="n">
-        <v>446.1973252563452</v>
+        <v>446.1973252563456</v>
       </c>
       <c r="F23" t="n">
-        <v>278.7075525011666</v>
+        <v>278.7075525011671</v>
       </c>
       <c r="G23" t="n">
-        <v>109.8779009208892</v>
+        <v>109.8779009208893</v>
       </c>
       <c r="H23" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="I23" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J23" t="n">
-        <v>152.9789828377824</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="K23" t="n">
-        <v>469.5331892888865</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="L23" t="n">
-        <v>469.5331892888865</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="M23" t="n">
-        <v>654.7204880487627</v>
+        <v>283.5313607309288</v>
       </c>
       <c r="N23" t="n">
-        <v>1025.909615366597</v>
+        <v>654.7204880487634</v>
       </c>
       <c r="O23" t="n">
-        <v>1025.909615366597</v>
+        <v>1025.909615366598</v>
       </c>
       <c r="P23" t="n">
-        <v>1340.450796129693</v>
+        <v>1340.450796129694</v>
       </c>
       <c r="Q23" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="R23" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="S23" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="T23" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="U23" t="n">
         <v>1491.579164780144</v>
       </c>
       <c r="V23" t="n">
-        <v>1401.261308610736</v>
+        <v>1401.261308610737</v>
       </c>
       <c r="W23" t="n">
-        <v>1285.387796402988</v>
+        <v>1285.387796402989</v>
       </c>
       <c r="X23" t="n">
         <v>1150.019073859133</v>
       </c>
       <c r="Y23" t="n">
-        <v>1003.138636369622</v>
+        <v>1003.138636369623</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>744.1343636771371</v>
+        <v>381.7077746722933</v>
       </c>
       <c r="C24" t="n">
-        <v>582.4306909180918</v>
+        <v>381.7077746722933</v>
       </c>
       <c r="D24" t="n">
-        <v>459.2856885320264</v>
+        <v>381.7077746722933</v>
       </c>
       <c r="E24" t="n">
-        <v>312.2576785888976</v>
+        <v>381.7077746722933</v>
       </c>
       <c r="F24" t="n">
         <v>312.2576785888976</v>
@@ -6060,58 +6060,58 @@
         <v>183.8571181348854</v>
       </c>
       <c r="H24" t="n">
-        <v>87.08646607190045</v>
+        <v>87.08646607190046</v>
       </c>
       <c r="I24" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="J24" t="n">
         <v>120.6157572122717</v>
       </c>
       <c r="K24" t="n">
-        <v>402.0075457117349</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="L24" t="n">
-        <v>773.1966730295692</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="M24" t="n">
-        <v>773.1966730295692</v>
+        <v>195.1042049741844</v>
       </c>
       <c r="N24" t="n">
-        <v>773.1966730295692</v>
+        <v>566.2933322920189</v>
       </c>
       <c r="O24" t="n">
-        <v>1136.282244073358</v>
+        <v>937.4824596098535</v>
       </c>
       <c r="P24" t="n">
-        <v>1499.754049769028</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q24" t="n">
-        <v>1499.754049769028</v>
+        <v>1499.754049769029</v>
       </c>
       <c r="R24" t="n">
-        <v>1499.754049769028</v>
+        <v>1460.330797896367</v>
       </c>
       <c r="S24" t="n">
-        <v>1353.045895582855</v>
+        <v>1460.330797896367</v>
       </c>
       <c r="T24" t="n">
-        <v>1353.045895582855</v>
+        <v>1460.330797896367</v>
       </c>
       <c r="U24" t="n">
-        <v>1134.572678149764</v>
+        <v>1241.857580463276</v>
       </c>
       <c r="V24" t="n">
-        <v>1134.572678149764</v>
+        <v>1013.46195791161</v>
       </c>
       <c r="W24" t="n">
-        <v>1134.572678149764</v>
+        <v>772.14608914492</v>
       </c>
       <c r="X24" t="n">
-        <v>936.6556900275583</v>
+        <v>574.2291010227145</v>
       </c>
       <c r="Y24" t="n">
-        <v>744.1343636771371</v>
+        <v>381.7077746722933</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>308.8125603473279</v>
+        <v>237.0539108656864</v>
       </c>
       <c r="C25" t="n">
-        <v>308.8125603473279</v>
+        <v>237.0539108656864</v>
       </c>
       <c r="D25" t="n">
-        <v>308.8125603473279</v>
+        <v>237.0539108656864</v>
       </c>
       <c r="E25" t="n">
-        <v>308.8125603473279</v>
+        <v>223.0951775454655</v>
       </c>
       <c r="F25" t="n">
-        <v>156.331905373105</v>
+        <v>70.61452257124263</v>
       </c>
       <c r="G25" t="n">
-        <v>70.61452257124262</v>
+        <v>70.61452257124263</v>
       </c>
       <c r="H25" t="n">
-        <v>70.61452257124262</v>
+        <v>70.61452257124263</v>
       </c>
       <c r="I25" t="n">
-        <v>70.61452257124262</v>
+        <v>70.61452257124263</v>
       </c>
       <c r="J25" t="n">
-        <v>29.99508099538055</v>
+        <v>29.99508099538057</v>
       </c>
       <c r="K25" t="n">
-        <v>94.90588907899618</v>
+        <v>94.90588907899621</v>
       </c>
       <c r="L25" t="n">
         <v>235.5746640210047</v>
@@ -6169,28 +6169,28 @@
         <v>772.0592653978196</v>
       </c>
       <c r="R25" t="n">
-        <v>634.8994930145493</v>
+        <v>772.0592653978196</v>
       </c>
       <c r="S25" t="n">
-        <v>634.8994930145493</v>
+        <v>563.1408435329079</v>
       </c>
       <c r="T25" t="n">
-        <v>402.8952556068366</v>
+        <v>331.1366061251952</v>
       </c>
       <c r="U25" t="n">
-        <v>362.3814304022039</v>
+        <v>290.6227809205624</v>
       </c>
       <c r="V25" t="n">
-        <v>348.3075438952776</v>
+        <v>276.5488944136362</v>
       </c>
       <c r="W25" t="n">
-        <v>308.8125603473279</v>
+        <v>237.0539108656864</v>
       </c>
       <c r="X25" t="n">
-        <v>308.8125603473279</v>
+        <v>237.0539108656864</v>
       </c>
       <c r="Y25" t="n">
-        <v>308.8125603473279</v>
+        <v>237.0539108656864</v>
       </c>
     </row>
     <row r="26">
@@ -6209,64 +6209,64 @@
         <v>1259.695398890399</v>
       </c>
       <c r="E26" t="n">
-        <v>967.0503862916619</v>
+        <v>967.0503862916626</v>
       </c>
       <c r="F26" t="n">
-        <v>655.0399028969886</v>
+        <v>655.0399028969891</v>
       </c>
       <c r="G26" t="n">
-        <v>341.689540677216</v>
+        <v>341.6895406772164</v>
       </c>
       <c r="H26" t="n">
-        <v>117.2860101122128</v>
+        <v>117.286010112213</v>
       </c>
       <c r="I26" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J26" t="n">
-        <v>293.3310115116683</v>
+        <v>293.3310115116682</v>
       </c>
       <c r="K26" t="n">
-        <v>709.9933251827551</v>
+        <v>709.9933251827549</v>
       </c>
       <c r="L26" t="n">
         <v>1252.784924042173</v>
       </c>
       <c r="M26" t="n">
-        <v>1797.034397012181</v>
+        <v>1851.613370049064</v>
       </c>
       <c r="N26" t="n">
-        <v>2382.661831102468</v>
+        <v>2437.240804139351</v>
       </c>
       <c r="O26" t="n">
-        <v>2788.880974437191</v>
+        <v>2943.568054694057</v>
       </c>
       <c r="P26" t="n">
-        <v>3203.53026242027</v>
+        <v>3258.109235457153</v>
       </c>
       <c r="Q26" t="n">
-        <v>3462.941623279587</v>
+        <v>3462.941623279588</v>
       </c>
       <c r="R26" t="n">
-        <v>3511.950122464182</v>
+        <v>3511.950122464183</v>
       </c>
       <c r="S26" t="n">
-        <v>3440.828701230939</v>
+        <v>3440.828701230941</v>
       </c>
       <c r="T26" t="n">
-        <v>3321.293506559797</v>
+        <v>3321.293506559799</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.597910931418</v>
+        <v>3168.59791093142</v>
       </c>
       <c r="V26" t="n">
-        <v>2933.759344122516</v>
+        <v>2933.759344122518</v>
       </c>
       <c r="W26" t="n">
-        <v>2673.365121275273</v>
+        <v>2673.365121275275</v>
       </c>
       <c r="X26" t="n">
-        <v>2393.475688091923</v>
+        <v>2393.475688091924</v>
       </c>
       <c r="Y26" t="n">
         <v>2102.074539962918</v>
@@ -6294,28 +6294,28 @@
         <v>352.5016000428008</v>
       </c>
       <c r="G27" t="n">
-        <v>224.1010395887884</v>
+        <v>224.1010395887885</v>
       </c>
       <c r="H27" t="n">
-        <v>127.3303875258035</v>
+        <v>127.3303875258036</v>
       </c>
       <c r="I27" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J27" t="n">
-        <v>160.8596786661748</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="K27" t="n">
-        <v>160.8596786661748</v>
+        <v>351.6307909487468</v>
       </c>
       <c r="L27" t="n">
-        <v>596.4691405669796</v>
+        <v>787.2402528495518</v>
       </c>
       <c r="M27" t="n">
-        <v>1162.941351132694</v>
+        <v>1353.712463415266</v>
       </c>
       <c r="N27" t="n">
-        <v>1757.80129852868</v>
+        <v>1714.158656621462</v>
       </c>
       <c r="O27" t="n">
         <v>2182.83106159791</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>443.9396799526548</v>
+        <v>443.9396799526558</v>
       </c>
       <c r="C28" t="n">
-        <v>376.4644177094915</v>
+        <v>376.4644177094924</v>
       </c>
       <c r="D28" t="n">
-        <v>325.5332318324106</v>
+        <v>325.5332318324113</v>
       </c>
       <c r="E28" t="n">
-        <v>275.6649248888858</v>
+        <v>275.6649248888864</v>
       </c>
       <c r="F28" t="n">
-        <v>225.3249772098193</v>
+        <v>225.3249772098198</v>
       </c>
       <c r="G28" t="n">
-        <v>158.8208693524575</v>
+        <v>158.8208693524578</v>
       </c>
       <c r="H28" t="n">
-        <v>104.033340000341</v>
+        <v>104.0333400003411</v>
       </c>
       <c r="I28" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J28" t="n">
-        <v>130.535994980764</v>
+        <v>130.5359949807639</v>
       </c>
       <c r="K28" t="n">
-        <v>295.5549102843624</v>
+        <v>295.5549102843621</v>
       </c>
       <c r="L28" t="n">
-        <v>536.3317924463535</v>
+        <v>536.3317924463532</v>
       </c>
       <c r="M28" t="n">
-        <v>796.6728466785153</v>
+        <v>796.6728466785149</v>
       </c>
       <c r="N28" t="n">
-        <v>1056.438377038233</v>
+        <v>1056.438377038232</v>
       </c>
       <c r="O28" t="n">
-        <v>1293.097402509018</v>
+        <v>1293.097402509017</v>
       </c>
       <c r="P28" t="n">
-        <v>1488.764234223155</v>
+        <v>1488.764234223154</v>
       </c>
       <c r="Q28" t="n">
-        <v>1573.665686612331</v>
+        <v>1573.665686612333</v>
       </c>
       <c r="R28" t="n">
-        <v>1538.646621524217</v>
+        <v>1538.646621524219</v>
       </c>
       <c r="S28" t="n">
-        <v>1431.868906954462</v>
+        <v>1431.868906954464</v>
       </c>
       <c r="T28" t="n">
-        <v>1302.005376841906</v>
+        <v>1302.005376841907</v>
       </c>
       <c r="U28" t="n">
-        <v>1116.970840997778</v>
+        <v>1116.97084099778</v>
       </c>
       <c r="V28" t="n">
-        <v>958.3762438513572</v>
+        <v>958.3762438513587</v>
       </c>
       <c r="W28" t="n">
-        <v>774.3605496639127</v>
+        <v>774.3605496639141</v>
       </c>
       <c r="X28" t="n">
-        <v>645.2487928544449</v>
+        <v>645.248792854446</v>
       </c>
       <c r="Y28" t="n">
-        <v>525.3543413418782</v>
+        <v>525.3543413418794</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.171707740055</v>
+        <v>1810.171707740056</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.378656368018</v>
+        <v>1530.37865636802</v>
       </c>
       <c r="D29" t="n">
-        <v>1259.695398890398</v>
+        <v>1259.6953988904</v>
       </c>
       <c r="E29" t="n">
-        <v>967.0503862916619</v>
+        <v>967.0503862916632</v>
       </c>
       <c r="F29" t="n">
-        <v>655.0399028969886</v>
+        <v>655.0399028969899</v>
       </c>
       <c r="G29" t="n">
-        <v>341.689540677216</v>
+        <v>341.6895406772173</v>
       </c>
       <c r="H29" t="n">
         <v>117.2860101122129</v>
@@ -6461,28 +6461,28 @@
         <v>70.23900244928366</v>
       </c>
       <c r="J29" t="n">
-        <v>193.2229042916855</v>
+        <v>293.3310115116683</v>
       </c>
       <c r="K29" t="n">
-        <v>609.8852179627725</v>
+        <v>709.9933251827554</v>
       </c>
       <c r="L29" t="n">
-        <v>1152.67681682219</v>
+        <v>1252.784924042173</v>
       </c>
       <c r="M29" t="n">
-        <v>1696.926289792199</v>
+        <v>1851.613370049065</v>
       </c>
       <c r="N29" t="n">
-        <v>2282.553723882485</v>
+        <v>2337.132696919369</v>
       </c>
       <c r="O29" t="n">
         <v>2788.880974437192</v>
       </c>
       <c r="P29" t="n">
-        <v>3203.53026242027</v>
+        <v>3203.530262420271</v>
       </c>
       <c r="Q29" t="n">
-        <v>3462.941623279587</v>
+        <v>3462.941623279588</v>
       </c>
       <c r="R29" t="n">
         <v>3511.950122464183</v>
@@ -6491,22 +6491,22 @@
         <v>3440.828701230941</v>
       </c>
       <c r="T29" t="n">
-        <v>3321.293506559798</v>
+        <v>3321.293506559799</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.597910931418</v>
+        <v>3168.59791093142</v>
       </c>
       <c r="V29" t="n">
-        <v>2933.759344122516</v>
+        <v>2933.759344122518</v>
       </c>
       <c r="W29" t="n">
-        <v>2673.365121275273</v>
+        <v>2673.365121275275</v>
       </c>
       <c r="X29" t="n">
-        <v>2393.475688091923</v>
+        <v>2393.475688091925</v>
       </c>
       <c r="Y29" t="n">
-        <v>2102.074539962917</v>
+        <v>2102.074539962919</v>
       </c>
     </row>
     <row r="30">
@@ -6531,34 +6531,34 @@
         <v>352.5016000428008</v>
       </c>
       <c r="G30" t="n">
-        <v>224.1010395887885</v>
+        <v>224.1010395887884</v>
       </c>
       <c r="H30" t="n">
-        <v>127.3303875258036</v>
+        <v>127.3303875258035</v>
       </c>
       <c r="I30" t="n">
         <v>70.23900244928366</v>
       </c>
       <c r="J30" t="n">
-        <v>160.8596786661748</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="K30" t="n">
-        <v>442.251467165638</v>
+        <v>351.6307909487469</v>
       </c>
       <c r="L30" t="n">
-        <v>877.8609290664428</v>
+        <v>552.8264986597611</v>
       </c>
       <c r="M30" t="n">
-        <v>1444.333139632157</v>
+        <v>1119.298709225475</v>
       </c>
       <c r="N30" t="n">
-        <v>1515.358872157957</v>
+        <v>1714.158656621462</v>
       </c>
       <c r="O30" t="n">
-        <v>1984.031277134405</v>
+        <v>2182.83106159791</v>
       </c>
       <c r="P30" t="n">
-        <v>2347.503082830075</v>
+        <v>2546.30286729358</v>
       </c>
       <c r="Q30" t="n">
         <v>2546.30286729358</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>443.9396799526548</v>
+        <v>443.9396799526549</v>
       </c>
       <c r="C31" t="n">
-        <v>376.4644177094914</v>
+        <v>376.4644177094916</v>
       </c>
       <c r="D31" t="n">
-        <v>325.5332318324105</v>
+        <v>325.5332318324106</v>
       </c>
       <c r="E31" t="n">
-        <v>275.6649248888858</v>
+        <v>275.6649248888859</v>
       </c>
       <c r="F31" t="n">
-        <v>225.3249772098193</v>
+        <v>225.3249772098194</v>
       </c>
       <c r="G31" t="n">
-        <v>158.8208693524574</v>
+        <v>158.8208693524575</v>
       </c>
       <c r="H31" t="n">
         <v>104.033340000341</v>
@@ -6619,37 +6619,37 @@
         <v>70.23900244928366</v>
       </c>
       <c r="J31" t="n">
-        <v>130.5359949807641</v>
+        <v>130.535994980764</v>
       </c>
       <c r="K31" t="n">
-        <v>295.5549102843626</v>
+        <v>295.5549102843622</v>
       </c>
       <c r="L31" t="n">
-        <v>536.3317924463538</v>
+        <v>536.3317924463533</v>
       </c>
       <c r="M31" t="n">
-        <v>796.6728466785156</v>
+        <v>796.6728466785152</v>
       </c>
       <c r="N31" t="n">
-        <v>1056.438377038233</v>
+        <v>1056.438377038232</v>
       </c>
       <c r="O31" t="n">
         <v>1293.097402509018</v>
       </c>
       <c r="P31" t="n">
-        <v>1488.764234223155</v>
+        <v>1488.764234223154</v>
       </c>
       <c r="Q31" t="n">
         <v>1573.665686612331</v>
       </c>
       <c r="R31" t="n">
-        <v>1538.646621524218</v>
+        <v>1538.646621524217</v>
       </c>
       <c r="S31" t="n">
         <v>1431.868906954462</v>
       </c>
       <c r="T31" t="n">
-        <v>1302.005376841905</v>
+        <v>1302.005376841906</v>
       </c>
       <c r="U31" t="n">
         <v>1116.970840997778</v>
@@ -6661,10 +6661,10 @@
         <v>774.3605496639127</v>
       </c>
       <c r="X31" t="n">
-        <v>645.2487928544448</v>
+        <v>645.2487928544449</v>
       </c>
       <c r="Y31" t="n">
-        <v>525.3543413418782</v>
+        <v>525.3543413418784</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>1810.171707740056</v>
       </c>
       <c r="C32" t="n">
-        <v>1530.37865636802</v>
+        <v>1530.378656368019</v>
       </c>
       <c r="D32" t="n">
-        <v>1259.6953988904</v>
+        <v>1259.695398890399</v>
       </c>
       <c r="E32" t="n">
-        <v>967.0503862916628</v>
+        <v>967.0503862916626</v>
       </c>
       <c r="F32" t="n">
-        <v>655.0399028969895</v>
+        <v>655.0399028969891</v>
       </c>
       <c r="G32" t="n">
-        <v>341.6895406772169</v>
+        <v>341.6895406772163</v>
       </c>
       <c r="H32" t="n">
         <v>117.2860101122129</v>
@@ -6698,46 +6698,46 @@
         <v>70.23900244928366</v>
       </c>
       <c r="J32" t="n">
-        <v>193.2229042916855</v>
+        <v>293.3310115116683</v>
       </c>
       <c r="K32" t="n">
-        <v>609.8852179627725</v>
+        <v>709.9933251827551</v>
       </c>
       <c r="L32" t="n">
-        <v>1152.67681682219</v>
+        <v>1252.784924042173</v>
       </c>
       <c r="M32" t="n">
-        <v>1751.505262829081</v>
+        <v>1851.613370049064</v>
       </c>
       <c r="N32" t="n">
-        <v>2331.562223067081</v>
+        <v>2437.240804139351</v>
       </c>
       <c r="O32" t="n">
-        <v>2837.889473621787</v>
+        <v>2843.459947474074</v>
       </c>
       <c r="P32" t="n">
-        <v>3252.538761604866</v>
+        <v>3203.530262420271</v>
       </c>
       <c r="Q32" t="n">
-        <v>3511.950122464183</v>
+        <v>3462.941623279588</v>
       </c>
       <c r="R32" t="n">
         <v>3511.950122464183</v>
       </c>
       <c r="S32" t="n">
-        <v>3440.82870123094</v>
+        <v>3440.828701230941</v>
       </c>
       <c r="T32" t="n">
-        <v>3321.293506559798</v>
+        <v>3321.293506559799</v>
       </c>
       <c r="U32" t="n">
-        <v>3168.597910931419</v>
+        <v>3168.59791093142</v>
       </c>
       <c r="V32" t="n">
-        <v>2933.759344122517</v>
+        <v>2933.759344122518</v>
       </c>
       <c r="W32" t="n">
-        <v>2673.365121275274</v>
+        <v>2673.365121275275</v>
       </c>
       <c r="X32" t="n">
         <v>2393.475688091924</v>
@@ -6786,7 +6786,7 @@
         <v>877.8609290664428</v>
       </c>
       <c r="M33" t="n">
-        <v>1444.333139632157</v>
+        <v>920.4989247619704</v>
       </c>
       <c r="N33" t="n">
         <v>1515.358872157957</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>443.9396799526548</v>
+        <v>443.939679952655</v>
       </c>
       <c r="C34" t="n">
-        <v>376.4644177094915</v>
+        <v>376.4644177094916</v>
       </c>
       <c r="D34" t="n">
-        <v>325.5332318324106</v>
+        <v>325.5332318324107</v>
       </c>
       <c r="E34" t="n">
-        <v>275.6649248888858</v>
+        <v>275.6649248888859</v>
       </c>
       <c r="F34" t="n">
-        <v>225.3249772098193</v>
+        <v>225.3249772098194</v>
       </c>
       <c r="G34" t="n">
         <v>158.8208693524575</v>
@@ -6859,13 +6859,13 @@
         <v>130.535994980764</v>
       </c>
       <c r="K34" t="n">
-        <v>295.5549102843624</v>
+        <v>295.5549102843623</v>
       </c>
       <c r="L34" t="n">
-        <v>536.3317924463537</v>
+        <v>536.3317924463536</v>
       </c>
       <c r="M34" t="n">
-        <v>796.6728466785155</v>
+        <v>796.6728466785154</v>
       </c>
       <c r="N34" t="n">
         <v>1056.438377038233</v>
@@ -6892,16 +6892,16 @@
         <v>1116.970840997778</v>
       </c>
       <c r="V34" t="n">
-        <v>958.3762438513571</v>
+        <v>958.3762438513572</v>
       </c>
       <c r="W34" t="n">
-        <v>774.3605496639126</v>
+        <v>774.3605496639127</v>
       </c>
       <c r="X34" t="n">
-        <v>645.2487928544448</v>
+        <v>645.2487928544449</v>
       </c>
       <c r="Y34" t="n">
-        <v>525.3543413418782</v>
+        <v>525.3543413418784</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6914,73 @@
         <v>1315.115623597502</v>
       </c>
       <c r="C35" t="n">
-        <v>1106.443993458708</v>
+        <v>1106.443993458709</v>
       </c>
       <c r="D35" t="n">
-        <v>906.8821572143305</v>
+        <v>906.882157214331</v>
       </c>
       <c r="E35" t="n">
-        <v>685.3585658488362</v>
+        <v>685.3585658488366</v>
       </c>
       <c r="F35" t="n">
-        <v>444.4695036874053</v>
+        <v>444.4695036874057</v>
       </c>
       <c r="G35" t="n">
         <v>202.2405627008748</v>
       </c>
       <c r="H35" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="I35" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J35" t="n">
-        <v>171.9423552115156</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="K35" t="n">
-        <v>488.4965616626198</v>
+        <v>365.5126598202179</v>
       </c>
       <c r="L35" t="n">
-        <v>931.1800533020549</v>
+        <v>742.9226787006578</v>
       </c>
       <c r="M35" t="n">
-        <v>1396.880944611327</v>
+        <v>1241.643017487566</v>
       </c>
       <c r="N35" t="n">
-        <v>1882.400271481632</v>
+        <v>1727.162344357871</v>
       </c>
       <c r="O35" t="n">
-        <v>2288.619414816355</v>
+        <v>2133.381487692594</v>
       </c>
       <c r="P35" t="n">
-        <v>2288.619414816355</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="Q35" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="R35" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="S35" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="T35" t="n">
-        <v>2399.50889501779</v>
+        <v>2399.508895017791</v>
       </c>
       <c r="U35" t="n">
-        <v>2317.934720622653</v>
+        <v>2317.934720622654</v>
       </c>
       <c r="V35" t="n">
-        <v>2154.217575046993</v>
+        <v>2154.217575046994</v>
       </c>
       <c r="W35" t="n">
-        <v>1964.944773432993</v>
+        <v>1964.944773432994</v>
       </c>
       <c r="X35" t="n">
-        <v>1756.176761482885</v>
+        <v>1756.176761482886</v>
       </c>
       <c r="Y35" t="n">
-        <v>1535.897034587122</v>
+        <v>1535.897034587123</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>106.0498384456337</v>
       </c>
       <c r="I36" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J36" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="K36" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="L36" t="n">
         <v>484.5679152699187</v>
@@ -7032,25 +7032,25 @@
         <v>2114.572478208067</v>
       </c>
       <c r="P36" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="Q36" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="R36" t="n">
-        <v>2408.499416583028</v>
+        <v>2408.499416583029</v>
       </c>
       <c r="S36" t="n">
         <v>2261.791262396855</v>
       </c>
       <c r="T36" t="n">
-        <v>2074.427984972332</v>
+        <v>2074.427984972333</v>
       </c>
       <c r="U36" t="n">
-        <v>1855.954767539241</v>
+        <v>1855.954767539242</v>
       </c>
       <c r="V36" t="n">
-        <v>1627.559144987575</v>
+        <v>1627.559144987576</v>
       </c>
       <c r="W36" t="n">
         <v>1386.243276220885</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.95845336911378</v>
+        <v>92.02493753753062</v>
       </c>
       <c r="C37" t="n">
-        <v>48.95845336911378</v>
+        <v>92.02493753753062</v>
       </c>
       <c r="D37" t="n">
-        <v>48.95845336911378</v>
+        <v>92.02493753753062</v>
       </c>
       <c r="E37" t="n">
-        <v>48.95845336911378</v>
+        <v>92.02493753753062</v>
       </c>
       <c r="F37" t="n">
-        <v>48.95845336911378</v>
+        <v>92.02493753753062</v>
       </c>
       <c r="G37" t="n">
-        <v>48.95845336911378</v>
+        <v>92.02493753753062</v>
       </c>
       <c r="H37" t="n">
-        <v>48.95845336911378</v>
+        <v>92.02493753753062</v>
       </c>
       <c r="I37" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J37" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="K37" t="n">
         <v>113.8692614527294</v>
@@ -7117,28 +7117,28 @@
         <v>791.0226377715527</v>
       </c>
       <c r="R37" t="n">
-        <v>653.8628653882824</v>
+        <v>791.0226377715527</v>
       </c>
       <c r="S37" t="n">
-        <v>618.2065720517695</v>
+        <v>755.3663444350398</v>
       </c>
       <c r="T37" t="n">
-        <v>559.4644631724556</v>
+        <v>696.6242355557258</v>
       </c>
       <c r="U37" t="n">
-        <v>366.382508248025</v>
+        <v>582.7111209448408</v>
       </c>
       <c r="V37" t="n">
-        <v>278.9093323348465</v>
+        <v>495.2379450316622</v>
       </c>
       <c r="W37" t="n">
-        <v>166.0150593806443</v>
+        <v>382.34367207746</v>
       </c>
       <c r="X37" t="n">
-        <v>108.0247238044189</v>
+        <v>151.0912079728358</v>
       </c>
       <c r="Y37" t="n">
-        <v>59.25169352509481</v>
+        <v>102.3181776935117</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1315.115623597501</v>
+        <v>1315.115623597502</v>
       </c>
       <c r="C38" t="n">
-        <v>1106.443993458708</v>
+        <v>1106.443993458709</v>
       </c>
       <c r="D38" t="n">
-        <v>906.8821572143302</v>
+        <v>906.8821572143308</v>
       </c>
       <c r="E38" t="n">
-        <v>685.3585658488357</v>
+        <v>685.3585658488366</v>
       </c>
       <c r="F38" t="n">
-        <v>444.4695036874051</v>
+        <v>444.4695036874059</v>
       </c>
       <c r="G38" t="n">
-        <v>202.2405627008747</v>
+        <v>202.2405627008748</v>
       </c>
       <c r="H38" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="I38" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J38" t="n">
-        <v>48.95845336911378</v>
+        <v>171.9423552115157</v>
       </c>
       <c r="K38" t="n">
-        <v>300.2391870612213</v>
+        <v>488.4965616626198</v>
       </c>
       <c r="L38" t="n">
-        <v>742.9226787006564</v>
+        <v>583.6194250613235</v>
       </c>
       <c r="M38" t="n">
-        <v>1241.643017487565</v>
+        <v>1082.339763848232</v>
       </c>
       <c r="N38" t="n">
-        <v>1727.162344357869</v>
+        <v>1567.859090718536</v>
       </c>
       <c r="O38" t="n">
-        <v>2133.381487692593</v>
+        <v>1974.07823405326</v>
       </c>
       <c r="P38" t="n">
-        <v>2447.922668455689</v>
+        <v>2288.619414816356</v>
       </c>
       <c r="Q38" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="R38" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="S38" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="T38" t="n">
-        <v>2399.50889501779</v>
+        <v>2399.508895017791</v>
       </c>
       <c r="U38" t="n">
-        <v>2317.934720622653</v>
+        <v>2317.934720622654</v>
       </c>
       <c r="V38" t="n">
-        <v>2154.217575046993</v>
+        <v>2154.217575046994</v>
       </c>
       <c r="W38" t="n">
-        <v>1964.944773432993</v>
+        <v>1964.944773432994</v>
       </c>
       <c r="X38" t="n">
-        <v>1756.176761482885</v>
+        <v>1756.176761482886</v>
       </c>
       <c r="Y38" t="n">
-        <v>1535.897034587122</v>
+        <v>1535.897034587123</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>836.3855189669966</v>
+        <v>913.4851687247186</v>
       </c>
       <c r="C39" t="n">
-        <v>674.6818462079514</v>
+        <v>751.7814959656733</v>
       </c>
       <c r="D39" t="n">
-        <v>535.8432091981634</v>
+        <v>612.9428589558854</v>
       </c>
       <c r="E39" t="n">
-        <v>388.8151992550347</v>
+        <v>465.9148490127566</v>
       </c>
       <c r="F39" t="n">
-        <v>254.121401204909</v>
+        <v>331.2210509626309</v>
       </c>
       <c r="G39" t="n">
-        <v>125.7208407508967</v>
+        <v>202.8204905086186</v>
       </c>
       <c r="H39" t="n">
         <v>106.0498384456337</v>
       </c>
       <c r="I39" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J39" t="n">
         <v>139.5791295860049</v>
       </c>
       <c r="K39" t="n">
-        <v>420.9709180854681</v>
+        <v>420.9709180854682</v>
       </c>
       <c r="L39" t="n">
-        <v>856.580379986273</v>
+        <v>856.5803799862731</v>
       </c>
       <c r="M39" t="n">
         <v>1423.052590551987</v>
       </c>
       <c r="N39" t="n">
-        <v>1423.052590551987</v>
+        <v>2017.912537947973</v>
       </c>
       <c r="O39" t="n">
-        <v>1885.651078296514</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="P39" t="n">
-        <v>2249.122883992184</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="Q39" t="n">
-        <v>2447.922668455689</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="R39" t="n">
-        <v>2408.499416583027</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="S39" t="n">
-        <v>2261.791262396854</v>
+        <v>2338.890912154576</v>
       </c>
       <c r="T39" t="n">
-        <v>2074.427984972331</v>
+        <v>2151.527634730053</v>
       </c>
       <c r="U39" t="n">
-        <v>1855.95476753924</v>
+        <v>1933.054417296962</v>
       </c>
       <c r="V39" t="n">
-        <v>1627.559144987574</v>
+        <v>1704.658794745296</v>
       </c>
       <c r="W39" t="n">
-        <v>1386.243276220884</v>
+        <v>1463.342925978606</v>
       </c>
       <c r="X39" t="n">
-        <v>1188.326288098679</v>
+        <v>1265.425937856401</v>
       </c>
       <c r="Y39" t="n">
-        <v>995.8049617482576</v>
+        <v>1072.90461150598</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>280.8024775859851</v>
+        <v>280.8024775859848</v>
       </c>
       <c r="C40" t="n">
-        <v>280.8024775859851</v>
+        <v>280.8024775859848</v>
       </c>
       <c r="D40" t="n">
-        <v>127.7305844137478</v>
+        <v>280.8024775859848</v>
       </c>
       <c r="E40" t="n">
-        <v>48.95845336911378</v>
+        <v>201.4391083433367</v>
       </c>
       <c r="F40" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="G40" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="H40" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="I40" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J40" t="n">
-        <v>48.95845336911378</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="K40" t="n">
         <v>113.8692614527294</v>
@@ -7369,13 +7369,13 @@
         <v>510.7533565517176</v>
       </c>
       <c r="W40" t="n">
-        <v>397.8590835975156</v>
+        <v>397.8590835975155</v>
       </c>
       <c r="X40" t="n">
-        <v>339.8687480212902</v>
+        <v>339.86874802129</v>
       </c>
       <c r="Y40" t="n">
-        <v>291.0957177419661</v>
+        <v>291.0957177419659</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1315.115623597502</v>
+        <v>1315.115623597501</v>
       </c>
       <c r="C41" t="n">
         <v>1106.443993458708</v>
       </c>
       <c r="D41" t="n">
-        <v>906.8821572143303</v>
+        <v>906.8821572143302</v>
       </c>
       <c r="E41" t="n">
-        <v>685.358565848836</v>
+        <v>685.3585658488361</v>
       </c>
       <c r="F41" t="n">
-        <v>444.4695036874051</v>
+        <v>444.4695036874052</v>
       </c>
       <c r="G41" t="n">
-        <v>202.2405627008747</v>
+        <v>202.2405627008748</v>
       </c>
       <c r="H41" t="n">
         <v>48.95845336911378</v>
@@ -7439,7 +7439,7 @@
         <v>2447.922668455689</v>
       </c>
       <c r="T41" t="n">
-        <v>2399.508895017789</v>
+        <v>2399.50889501779</v>
       </c>
       <c r="U41" t="n">
         <v>2317.934720622653</v>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>913.4851687247186</v>
+        <v>836.3855189669966</v>
       </c>
       <c r="C42" t="n">
-        <v>751.7814959656733</v>
+        <v>674.6818462079514</v>
       </c>
       <c r="D42" t="n">
-        <v>612.9428589558854</v>
+        <v>535.8432091981634</v>
       </c>
       <c r="E42" t="n">
         <v>465.9148490127566</v>
@@ -7494,13 +7494,13 @@
         <v>420.9709180854681</v>
       </c>
       <c r="L42" t="n">
-        <v>856.580379986273</v>
+        <v>822.1187259240791</v>
       </c>
       <c r="M42" t="n">
-        <v>856.580379986273</v>
+        <v>822.1187259240791</v>
       </c>
       <c r="N42" t="n">
-        <v>1451.440327382259</v>
+        <v>1416.978673320065</v>
       </c>
       <c r="O42" t="n">
         <v>1885.651078296514</v>
@@ -7533,7 +7533,7 @@
         <v>1188.326288098679</v>
       </c>
       <c r="Y42" t="n">
-        <v>1072.90461150598</v>
+        <v>995.8049617482576</v>
       </c>
     </row>
     <row r="43">
@@ -7588,31 +7588,31 @@
         <v>806.5380492916081</v>
       </c>
       <c r="Q43" t="n">
-        <v>791.0226377715527</v>
+        <v>806.5380492916081</v>
       </c>
       <c r="R43" t="n">
-        <v>791.0226377715527</v>
+        <v>806.5380492916081</v>
       </c>
       <c r="S43" t="n">
-        <v>755.3663444350398</v>
+        <v>770.8817559550952</v>
       </c>
       <c r="T43" t="n">
-        <v>696.6242355557258</v>
+        <v>712.1396470757812</v>
       </c>
       <c r="U43" t="n">
-        <v>409.448992416442</v>
+        <v>598.2265324648962</v>
       </c>
       <c r="V43" t="n">
-        <v>321.9758165032634</v>
+        <v>510.7533565517176</v>
       </c>
       <c r="W43" t="n">
-        <v>209.0815435490613</v>
+        <v>339.2771879090432</v>
       </c>
       <c r="X43" t="n">
-        <v>108.0247238044189</v>
+        <v>281.2868523328177</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.25169352509477</v>
+        <v>59.2516935250948</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1106.443993458708</v>
       </c>
       <c r="D44" t="n">
-        <v>906.8821572143302</v>
+        <v>906.8821572143299</v>
       </c>
       <c r="E44" t="n">
-        <v>685.3585658488356</v>
+        <v>685.3585658488355</v>
       </c>
       <c r="F44" t="n">
-        <v>444.4695036874048</v>
+        <v>444.4695036874046</v>
       </c>
       <c r="G44" t="n">
         <v>202.2405627008748</v>
@@ -7646,13 +7646,13 @@
         <v>48.95845336911378</v>
       </c>
       <c r="J44" t="n">
-        <v>171.9423552115157</v>
+        <v>171.9423552115156</v>
       </c>
       <c r="K44" t="n">
-        <v>488.49656166262</v>
+        <v>488.4965616626198</v>
       </c>
       <c r="L44" t="n">
-        <v>931.1800533020553</v>
+        <v>931.1800533020549</v>
       </c>
       <c r="M44" t="n">
         <v>1429.900392088964</v>
@@ -7661,10 +7661,10 @@
         <v>1915.419718959268</v>
       </c>
       <c r="O44" t="n">
-        <v>1974.078234053258</v>
+        <v>2321.638862293991</v>
       </c>
       <c r="P44" t="n">
-        <v>2288.619414816354</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="Q44" t="n">
         <v>2447.922668455689</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>913.4851687247184</v>
+        <v>836.3855189669966</v>
       </c>
       <c r="C45" t="n">
-        <v>751.7814959656731</v>
+        <v>674.6818462079514</v>
       </c>
       <c r="D45" t="n">
-        <v>612.9428589558852</v>
+        <v>535.8432091981634</v>
       </c>
       <c r="E45" t="n">
-        <v>465.9148490127565</v>
+        <v>388.8151992550347</v>
       </c>
       <c r="F45" t="n">
-        <v>331.2210509626308</v>
+        <v>254.121401204909</v>
       </c>
       <c r="G45" t="n">
-        <v>202.8204905086185</v>
+        <v>202.8204905086186</v>
       </c>
       <c r="H45" t="n">
         <v>106.0498384456337</v>
@@ -7725,19 +7725,19 @@
         <v>48.95845336911378</v>
       </c>
       <c r="J45" t="n">
-        <v>139.579129586005</v>
+        <v>139.5791295860049</v>
       </c>
       <c r="K45" t="n">
-        <v>420.9709180854682</v>
+        <v>420.9709180854681</v>
       </c>
       <c r="L45" t="n">
-        <v>856.5803799862731</v>
+        <v>856.580379986273</v>
       </c>
       <c r="M45" t="n">
-        <v>1423.052590551987</v>
+        <v>1416.978673320065</v>
       </c>
       <c r="N45" t="n">
-        <v>1423.052590551987</v>
+        <v>1416.978673320065</v>
       </c>
       <c r="O45" t="n">
         <v>1885.651078296514</v>
@@ -7752,25 +7752,25 @@
         <v>2408.499416583027</v>
       </c>
       <c r="S45" t="n">
-        <v>2338.890912154576</v>
+        <v>2261.791262396854</v>
       </c>
       <c r="T45" t="n">
-        <v>2151.527634730053</v>
+        <v>2074.427984972331</v>
       </c>
       <c r="U45" t="n">
-        <v>1933.054417296962</v>
+        <v>1855.95476753924</v>
       </c>
       <c r="V45" t="n">
-        <v>1704.658794745296</v>
+        <v>1627.559144987574</v>
       </c>
       <c r="W45" t="n">
-        <v>1463.342925978606</v>
+        <v>1386.243276220884</v>
       </c>
       <c r="X45" t="n">
-        <v>1265.4259378564</v>
+        <v>1188.326288098679</v>
       </c>
       <c r="Y45" t="n">
-        <v>1072.904611505979</v>
+        <v>995.8049617482576</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>143.6427052027148</v>
+        <v>128.1272936826587</v>
       </c>
       <c r="C46" t="n">
-        <v>143.6427052027148</v>
+        <v>128.1272936826587</v>
       </c>
       <c r="D46" t="n">
-        <v>143.6427052027148</v>
+        <v>128.1272936826587</v>
       </c>
       <c r="E46" t="n">
-        <v>143.6427052027148</v>
+        <v>128.1272936826587</v>
       </c>
       <c r="F46" t="n">
-        <v>143.6427052027148</v>
+        <v>128.1272936826587</v>
       </c>
       <c r="G46" t="n">
-        <v>143.6427052027148</v>
+        <v>128.1272936826587</v>
       </c>
       <c r="H46" t="n">
-        <v>48.95845336911378</v>
+        <v>128.1272936826587</v>
       </c>
       <c r="I46" t="n">
         <v>48.95845336911378</v>
@@ -7807,49 +7807,49 @@
         <v>48.95845336911378</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8692614527295</v>
+        <v>113.8692614527294</v>
       </c>
       <c r="L46" t="n">
-        <v>254.538036394738</v>
+        <v>254.5380363947379</v>
       </c>
       <c r="M46" t="n">
-        <v>414.7709834069171</v>
+        <v>414.7709834069169</v>
       </c>
       <c r="N46" t="n">
-        <v>574.428406546652</v>
+        <v>574.4284065466518</v>
       </c>
       <c r="O46" t="n">
-        <v>710.9793247974544</v>
+        <v>710.9793247974542</v>
       </c>
       <c r="P46" t="n">
-        <v>806.5380492916083</v>
+        <v>806.5380492916081</v>
       </c>
       <c r="Q46" t="n">
-        <v>806.5380492916083</v>
+        <v>791.0226377715527</v>
       </c>
       <c r="R46" t="n">
-        <v>669.3782769083381</v>
+        <v>653.8628653882824</v>
       </c>
       <c r="S46" t="n">
-        <v>633.7219835718251</v>
+        <v>618.2065720517694</v>
       </c>
       <c r="T46" t="n">
-        <v>574.9798746925112</v>
+        <v>559.4644631724553</v>
       </c>
       <c r="U46" t="n">
-        <v>461.0667600816261</v>
+        <v>445.5513485615703</v>
       </c>
       <c r="V46" t="n">
-        <v>373.5935841684475</v>
+        <v>358.0781726483916</v>
       </c>
       <c r="W46" t="n">
-        <v>260.6993112142454</v>
+        <v>245.1838996941894</v>
       </c>
       <c r="X46" t="n">
-        <v>202.7089756380199</v>
+        <v>187.1935641179639</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.9359453586958</v>
+        <v>138.4205338386398</v>
       </c>
     </row>
   </sheetData>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>95.59943624652232</v>
       </c>
       <c r="K11" t="n">
-        <v>421.3890363425141</v>
+        <v>101.6373126545301</v>
       </c>
       <c r="L11" t="n">
-        <v>470.7430492978069</v>
+        <v>95.80453685555004</v>
       </c>
       <c r="M11" t="n">
-        <v>80.60967557410795</v>
+        <v>336.7069278322375</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9651687404618</v>
+        <v>453.0659516825796</v>
       </c>
       <c r="O11" t="n">
-        <v>459.6563810790545</v>
+        <v>459.6563810790548</v>
       </c>
       <c r="P11" t="n">
-        <v>100.6199562157595</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,25 +8766,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981315</v>
       </c>
       <c r="K12" t="n">
-        <v>59.57067831891464</v>
+        <v>218.5522968609743</v>
       </c>
       <c r="L12" t="n">
-        <v>417.0214038611933</v>
+        <v>417.0214038611936</v>
       </c>
       <c r="M12" t="n">
-        <v>408.1609432306769</v>
+        <v>408.1609432306772</v>
       </c>
       <c r="N12" t="n">
-        <v>397.2149653555569</v>
+        <v>397.2149653555572</v>
       </c>
       <c r="O12" t="n">
-        <v>106.0601273459092</v>
+        <v>38.61454538656795</v>
       </c>
       <c r="P12" t="n">
-        <v>46.85836115548405</v>
+        <v>46.85836115548404</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8924,22 +8924,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.59943624652233</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>470.743049297807</v>
+        <v>470.7430492978073</v>
       </c>
       <c r="M14" t="n">
-        <v>455.5481880163649</v>
+        <v>455.5481880163651</v>
       </c>
       <c r="N14" t="n">
-        <v>453.0659516825795</v>
+        <v>368.8775461539316</v>
       </c>
       <c r="O14" t="n">
-        <v>124.7556265853228</v>
+        <v>84.71786863679766</v>
       </c>
       <c r="P14" t="n">
         <v>100.6199562157595</v>
@@ -9009,19 +9009,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>417.0214038611934</v>
+        <v>42.08289141893646</v>
       </c>
       <c r="M15" t="n">
-        <v>191.3723953925806</v>
+        <v>33.22243078842008</v>
       </c>
       <c r="N15" t="n">
-        <v>22.27645291330009</v>
+        <v>188.221691883284</v>
       </c>
       <c r="O15" t="n">
-        <v>413.5530578288249</v>
+        <v>413.5530578288251</v>
       </c>
       <c r="P15" t="n">
-        <v>46.85836115548407</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>95.59943624652233</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>357.7345649126593</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>470.743049297807</v>
+        <v>470.7430492978073</v>
       </c>
       <c r="M17" t="n">
-        <v>80.60967557410797</v>
+        <v>455.5481880163651</v>
       </c>
       <c r="N17" t="n">
-        <v>78.12743924032253</v>
+        <v>368.8775461539316</v>
       </c>
       <c r="O17" t="n">
-        <v>459.6563810790546</v>
+        <v>84.71786863679766</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229274</v>
+        <v>100.6199562157595</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>115.0971104444071</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,22 +9240,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>72.38230935981316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>59.57067831891464</v>
       </c>
       <c r="L18" t="n">
-        <v>417.0214038611934</v>
+        <v>42.08289141893646</v>
       </c>
       <c r="M18" t="n">
-        <v>199.9993236963023</v>
+        <v>108.4632871135844</v>
       </c>
       <c r="N18" t="n">
-        <v>22.27645291330009</v>
+        <v>397.2149653555572</v>
       </c>
       <c r="O18" t="n">
-        <v>413.5530578288249</v>
+        <v>413.5530578288251</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.6705534758636</v>
+        <v>95.59943624652233</v>
       </c>
       <c r="K20" t="n">
         <v>101.6373126545301</v>
       </c>
       <c r="L20" t="n">
-        <v>470.743049297807</v>
+        <v>470.7430492978073</v>
       </c>
       <c r="M20" t="n">
-        <v>80.60967557410797</v>
+        <v>455.5481880163651</v>
       </c>
       <c r="N20" t="n">
-        <v>453.0659516825795</v>
+        <v>437.9169208768319</v>
       </c>
       <c r="O20" t="n">
-        <v>459.6563810790546</v>
+        <v>459.6563810790548</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3383206229274</v>
+        <v>100.6199562157595</v>
       </c>
       <c r="Q20" t="n">
         <v>115.0971104444071</v>
@@ -9483,22 +9483,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>417.0214038611934</v>
+        <v>417.0214038611936</v>
       </c>
       <c r="M21" t="n">
-        <v>399.975532852853</v>
+        <v>191.3723953925811</v>
       </c>
       <c r="N21" t="n">
         <v>22.27645291330009</v>
       </c>
       <c r="O21" t="n">
-        <v>38.61454538656798</v>
+        <v>413.5530578288251</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>46.85836115548407</v>
       </c>
       <c r="Q21" t="n">
-        <v>72.29261096215421</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>95.59943624652233</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>101.6373126545301</v>
       </c>
       <c r="L23" t="n">
         <v>95.80453685555008</v>
       </c>
       <c r="M23" t="n">
-        <v>267.6675531093364</v>
+        <v>336.7069278322375</v>
       </c>
       <c r="N23" t="n">
-        <v>453.0659516825795</v>
+        <v>453.0659516825797</v>
       </c>
       <c r="O23" t="n">
-        <v>84.71786863679766</v>
+        <v>459.6563810790548</v>
       </c>
       <c r="P23" t="n">
         <v>418.3383206229274</v>
@@ -9717,25 +9717,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891464</v>
       </c>
       <c r="L24" t="n">
-        <v>417.0214038611934</v>
+        <v>42.08289141893646</v>
       </c>
       <c r="M24" t="n">
-        <v>33.22243078842008</v>
+        <v>108.4632871135844</v>
       </c>
       <c r="N24" t="n">
-        <v>22.27645291330009</v>
+        <v>397.2149653555572</v>
       </c>
       <c r="O24" t="n">
-        <v>405.3676474510009</v>
+        <v>413.5530578288251</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>72.29261096215421</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981316</v>
       </c>
       <c r="K27" t="n">
-        <v>59.57067831891464</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,10 +9963,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>386.3635167579426</v>
       </c>
       <c r="O27" t="n">
-        <v>467.9375383857905</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
@@ -10188,19 +10188,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981314</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>245.3108790058195</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>94.01961708077471</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215419</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>76.29111330915504</v>
       </c>
       <c r="N33" t="n">
-        <v>94.01961708077471</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>95.59943624652233</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
-        <v>542.9595789155856</v>
+        <v>477.0267781489237</v>
       </c>
       <c r="M35" t="n">
-        <v>551.0146162905447</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>100.6199562157595</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>115.0971104444071</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10680,7 +10680,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>383.5757250419708</v>
+        <v>383.5757250419717</v>
       </c>
       <c r="Q36" t="n">
         <v>72.29261096215421</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>95.59943624652233</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>355.4562355758509</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155856</v>
+        <v>191.888237258281</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10911,16 +10911,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>22.27645291330009</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>505.8857451285141</v>
+        <v>472.96821256608</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>46.85836115548407</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215421</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11142,7 +11142,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>447.2826973165233</v>
       </c>
       <c r="M42" t="n">
         <v>33.22243078842008</v>
@@ -11151,7 +11151,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>477.2112634817746</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11309,13 +11309,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>143.9688939842619</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229274</v>
+        <v>228.1793563790904</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>115.0971104444071</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11382,13 +11382,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>599.2813129437659</v>
       </c>
       <c r="N45" t="n">
-        <v>22.27645291329999</v>
+        <v>22.27645291330009</v>
       </c>
       <c r="O45" t="n">
-        <v>505.885745128514</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.1078504188222</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>220.1004714210318</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.8426089909374</v>
       </c>
       <c r="F11" t="n">
-        <v>261.0144250789145</v>
+        <v>261.0144250789146</v>
       </c>
       <c r="G11" t="n">
-        <v>119.1381089353611</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>103.2926861902832</v>
       </c>
       <c r="V11" t="n">
-        <v>184.6142276590012</v>
+        <v>147.5239895523096</v>
       </c>
       <c r="W11" t="n">
-        <v>209.9143271369581</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>240.6111831659035</v>
+        <v>240.6111831659036</v>
       </c>
     </row>
     <row r="12">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.1078504188221</v>
+        <v>241.1078504188223</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>229.119167376504</v>
       </c>
       <c r="D14" t="n">
-        <v>220.1004714210318</v>
+        <v>220.100471421032</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>261.0144250789145</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>184.6142276590012</v>
+        <v>105.9363416741507</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>209.9143271369583</v>
       </c>
       <c r="X14" t="n">
-        <v>229.2145853697047</v>
+        <v>229.2145853697049</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.34118344969544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>8.775024258311669e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894974.6584008083</v>
+        <v>894974.6584008085</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894974.6584008083</v>
+        <v>894974.6584008082</v>
       </c>
     </row>
     <row r="7">
@@ -26314,43 +26314,43 @@
         <v>478672.8946920653</v>
       </c>
       <c r="C2" t="n">
-        <v>478672.8946920652</v>
+        <v>478672.8946920653</v>
       </c>
       <c r="D2" t="n">
-        <v>478672.8946920652</v>
+        <v>478672.8946920654</v>
       </c>
       <c r="E2" t="n">
-        <v>418304.2488248543</v>
+        <v>418304.248824854</v>
       </c>
       <c r="F2" t="n">
-        <v>418304.2488248547</v>
+        <v>418304.2488248542</v>
       </c>
       <c r="G2" t="n">
+        <v>479765.0378088638</v>
+      </c>
+      <c r="H2" t="n">
+        <v>479765.0378088638</v>
+      </c>
+      <c r="I2" t="n">
         <v>479765.0378088636</v>
       </c>
-      <c r="H2" t="n">
-        <v>479765.0378088639</v>
-      </c>
-      <c r="I2" t="n">
-        <v>479765.0378088637</v>
-      </c>
       <c r="J2" t="n">
-        <v>479765.037808863</v>
+        <v>479765.0378088628</v>
       </c>
       <c r="K2" t="n">
         <v>479765.0378088631</v>
       </c>
       <c r="L2" t="n">
-        <v>479765.0378088638</v>
+        <v>479765.0378088639</v>
       </c>
       <c r="M2" t="n">
-        <v>479765.0378088628</v>
+        <v>479765.0378088632</v>
       </c>
       <c r="N2" t="n">
         <v>479765.0378088629</v>
       </c>
       <c r="O2" t="n">
-        <v>479765.0378088634</v>
+        <v>479765.0378088629</v>
       </c>
       <c r="P2" t="n">
         <v>479765.0378088629</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>352409.0220339869</v>
+        <v>352409.022033987</v>
       </c>
       <c r="F3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>76159.64004103019</v>
+        <v>76159.64004103032</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136355.5574477964</v>
+        <v>136355.5574477963</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>3.351487976033239e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>76159.6400410302</v>
+        <v>76159.6400410303</v>
       </c>
       <c r="M3" t="n">
-        <v>83474.36825920502</v>
+        <v>83474.36825920512</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4735.800136733633</v>
+        <v>4735.800136733519</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>303300.2911377928</v>
       </c>
       <c r="F4" t="n">
-        <v>303300.2911377928</v>
+        <v>303300.2911377927</v>
       </c>
       <c r="G4" t="n">
         <v>359427.9628026185</v>
@@ -26442,10 +26442,10 @@
         <v>348294.7670570374</v>
       </c>
       <c r="K4" t="n">
+        <v>348294.7670570375</v>
+      </c>
+      <c r="L4" t="n">
         <v>348294.7670570376</v>
-      </c>
-      <c r="L4" t="n">
-        <v>348294.7670570374</v>
       </c>
       <c r="M4" t="n">
         <v>349934.2306458565</v>
@@ -26476,34 +26476,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38612.60241106099</v>
+        <v>38612.60241106102</v>
       </c>
       <c r="F5" t="n">
-        <v>38612.60241106101</v>
+        <v>38612.602411061</v>
       </c>
       <c r="G5" t="n">
-        <v>46615.93338432271</v>
+        <v>46615.93338432273</v>
       </c>
       <c r="H5" t="n">
-        <v>46615.93338432271</v>
+        <v>46615.93338432273</v>
       </c>
       <c r="I5" t="n">
-        <v>46615.93338432271</v>
+        <v>46615.93338432273</v>
       </c>
       <c r="J5" t="n">
         <v>65173.0991827649</v>
       </c>
       <c r="K5" t="n">
-        <v>65173.0991827649</v>
+        <v>65173.09918276491</v>
       </c>
       <c r="L5" t="n">
-        <v>65173.0991827649</v>
+        <v>65173.09918276491</v>
       </c>
       <c r="M5" t="n">
         <v>54919.19757587669</v>
       </c>
       <c r="N5" t="n">
-        <v>54919.19757587668</v>
+        <v>54919.19757587669</v>
       </c>
       <c r="O5" t="n">
         <v>54919.19757587668</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25288.89223539082</v>
+        <v>25284.52366292357</v>
       </c>
       <c r="C6" t="n">
-        <v>25288.8922353907</v>
+        <v>25284.52366292357</v>
       </c>
       <c r="D6" t="n">
-        <v>25288.8922353907</v>
+        <v>25284.52366292369</v>
       </c>
       <c r="E6" t="n">
-        <v>-276017.6667579863</v>
+        <v>-276263.5099139228</v>
       </c>
       <c r="F6" t="n">
-        <v>76391.35527600086</v>
+        <v>76145.51212006454</v>
       </c>
       <c r="G6" t="n">
-        <v>-2438.498419107789</v>
+        <v>-2438.498419107746</v>
       </c>
       <c r="H6" t="n">
-        <v>73721.1416219227</v>
+        <v>73721.14162192255</v>
       </c>
       <c r="I6" t="n">
-        <v>73721.14162192258</v>
+        <v>73721.14162192238</v>
       </c>
       <c r="J6" t="n">
-        <v>-70058.3858787357</v>
+        <v>-70058.38587873576</v>
       </c>
       <c r="K6" t="n">
-        <v>66297.17156906056</v>
+        <v>66297.17156906062</v>
       </c>
       <c r="L6" t="n">
-        <v>-9862.468471968743</v>
+        <v>-9862.468471968925</v>
       </c>
       <c r="M6" t="n">
-        <v>-8562.758672075368</v>
+        <v>-8562.758672075201</v>
       </c>
       <c r="N6" t="n">
-        <v>74911.60958712977</v>
+        <v>74911.60958712976</v>
       </c>
       <c r="O6" t="n">
-        <v>70175.80945039667</v>
+        <v>70175.80945039621</v>
       </c>
       <c r="P6" t="n">
         <v>74911.60958712983</v>
@@ -26695,7 +26695,7 @@
         <v>148.9952537040168</v>
       </c>
       <c r="F2" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="G2" t="n">
         <v>244.1948037553046</v>
@@ -26707,7 +26707,7 @@
         <v>244.1948037553046</v>
       </c>
       <c r="J2" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="K2" t="n">
         <v>101.1193002222048</v>
@@ -26762,7 +26762,7 @@
         <v>150.9384803178345</v>
       </c>
       <c r="K3" t="n">
-        <v>150.9384803178345</v>
+        <v>150.9384803178347</v>
       </c>
       <c r="L3" t="n">
         <v>150.9384803178345</v>
@@ -26777,7 +26777,7 @@
         <v>150.9384803178345</v>
       </c>
       <c r="P3" t="n">
-        <v>150.9384803178347</v>
+        <v>150.9384803178345</v>
       </c>
     </row>
     <row r="4">
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="F4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="G4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="H4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="I4" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="J4" t="n">
-        <v>877.9875306160455</v>
+        <v>877.9875306160458</v>
       </c>
       <c r="K4" t="n">
-        <v>877.9875306160457</v>
+        <v>877.9875306160458</v>
       </c>
       <c r="L4" t="n">
-        <v>877.9875306160457</v>
+        <v>877.9875306160458</v>
       </c>
       <c r="M4" t="n">
-        <v>611.9806671139223</v>
+        <v>611.9806671139226</v>
       </c>
       <c r="N4" t="n">
-        <v>611.9806671139222</v>
+        <v>611.9806671139226</v>
       </c>
       <c r="O4" t="n">
         <v>611.9806671139222</v>
@@ -26917,10 +26917,10 @@
         <v>148.9952537040168</v>
       </c>
       <c r="F2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>95.19955005128773</v>
+        <v>95.1995500512879</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.919750170917041</v>
+        <v>5.919750170916871</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>4.189359970041549e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128774</v>
+        <v>95.19955005128789</v>
       </c>
       <c r="M2" t="n">
         <v>70.41020702090998</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170917041</v>
+        <v>5.919750170916899</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>108.9316489401335</v>
+        <v>108.9316489401339</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>148.9952537040168</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128773</v>
+        <v>95.1995500512879</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170917041</v>
+        <v>5.919750170916871</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>4.189359970041549e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>113.8153279501691</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>148.9952537040168</v>
+        <v>116.1769429411019</v>
       </c>
     </row>
     <row r="13">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="C14" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="D14" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="E14" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="F14" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="G14" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="H14" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="I14" t="n">
         <v>147.6958378085047</v>
@@ -28375,25 +28375,25 @@
         <v>51.61576569231051</v>
       </c>
       <c r="S14" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="U14" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="V14" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="W14" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="X14" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="Y14" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
     </row>
     <row r="15">
@@ -28403,16 +28403,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>112.4227618813965</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -28421,10 +28421,10 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.52047122575469</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>148.9952537040169</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>148.9952537040169</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>139.797417374779</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>148.9952537040169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,25 +28482,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="C16" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="D16" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="E16" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="F16" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="G16" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="I16" t="n">
         <v>134.5756943977516</v>
@@ -28530,28 +28530,28 @@
         <v>15.36025740485484</v>
       </c>
       <c r="R16" t="n">
-        <v>135.7881746594375</v>
+        <v>135.7881746594398</v>
       </c>
       <c r="S16" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="T16" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="U16" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="V16" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="W16" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="X16" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
       <c r="Y16" t="n">
-        <v>148.9952537040169</v>
+        <v>148.9952537040167</v>
       </c>
     </row>
     <row r="17">
@@ -28640,10 +28640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
@@ -28652,7 +28652,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>117.4606841560916</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>56.52047122575469</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,19 +28694,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>185.4896446502776</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>180.8976604464522</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28731,16 +28731,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.958367000993</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I19" t="n">
-        <v>134.5756943977516</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,22 +28767,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>156.0504170154505</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T19" t="n">
         <v>229.6841950336356</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>157.4650494764009</v>
+      </c>
+      <c r="W19" t="n">
         <v>244.1948037553046</v>
-      </c>
-      <c r="V19" t="n">
-        <v>244.1948037553046</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -28883,7 +28883,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28895,10 +28895,10 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H21" t="n">
-        <v>95.80294554235505</v>
+        <v>6.878558890199827</v>
       </c>
       <c r="I21" t="n">
-        <v>56.52047122575469</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,13 +28928,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28943,10 +28943,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>57.71110022216325</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.36025740485484</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>206.8292376462626</v>
       </c>
       <c r="T22" t="n">
-        <v>229.6841950336356</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>51.34248307389907</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>212.3603029521815</v>
+      </c>
+      <c r="W22" t="n">
         <v>244.1948037553046</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -29117,16 +29117,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>15.53669827748529</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>64.59126494706267</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.02901935393511</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T24" t="n">
         <v>185.4896446502776</v>
@@ -29174,10 +29174,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29202,13 +29202,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>136.6697781092757</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>82.09815802714931</v>
+        <v>166.958367000993</v>
       </c>
       <c r="H25" t="n">
         <v>155.3589542808002</v>
@@ -29241,10 +29241,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S25" t="n">
-        <v>206.8292376462626</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="C26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="D26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="E26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="F26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="G26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="H26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="I26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="J26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="K26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="L26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="M26" t="n">
-        <v>45.98902442737312</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="N26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="P26" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.1193002222048</v>
+        <v>45.98902442737406</v>
       </c>
       <c r="R26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="S26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="T26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="U26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="V26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="W26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="X26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="Y26" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="C28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="D28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="E28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="F28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="G28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="H28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="I28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="J28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="K28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="L28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="M28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="N28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="O28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="P28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="Q28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222076</v>
       </c>
       <c r="R28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="S28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="T28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="U28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="V28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="W28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="X28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="Y28" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="K29" t="n">
         <v>101.1193002222048</v>
@@ -29542,13 +29542,13 @@
         <v>101.1193002222048</v>
       </c>
       <c r="M29" t="n">
-        <v>45.98902442737358</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="N29" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>101.1193002222048</v>
+        <v>45.98902442737335</v>
       </c>
       <c r="P29" t="n">
         <v>101.1193002222048</v>
@@ -29770,7 +29770,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="K32" t="n">
         <v>101.1193002222048</v>
@@ -29782,19 +29782,19 @@
         <v>101.1193002222048</v>
       </c>
       <c r="N32" t="n">
-        <v>95.49255895726759</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="O32" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>101.1193002222048</v>
+        <v>45.98902442737398</v>
       </c>
       <c r="Q32" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="R32" t="n">
-        <v>51.61576569231051</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="S32" t="n">
         <v>101.1193002222048</v>
@@ -29940,10 +29940,10 @@
         <v>101.1193002222048</v>
       </c>
       <c r="N34" t="n">
-        <v>101.1193002222045</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="O34" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222047</v>
       </c>
       <c r="P34" t="n">
         <v>101.1193002222048</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>76.32865326014426</v>
+        <v>76.32865326014337</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30162,7 +30162,7 @@
         <v>155.3589542808002</v>
       </c>
       <c r="I37" t="n">
-        <v>134.5756943977516</v>
+        <v>91.93987507101895</v>
       </c>
       <c r="J37" t="n">
         <v>40.21324716010344</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S37" t="n">
         <v>171.5295072431148</v>
@@ -30198,7 +30198,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="U37" t="n">
-        <v>93.15235533270479</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="V37" t="n">
         <v>171.5295072431148</v>
@@ -30207,7 +30207,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="X37" t="n">
-        <v>171.5295072431148</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>171.5295072431148</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>76.32865326014463</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>39.02901935393511</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>37.29963390620807</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30384,13 +30384,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>72.50451436210663</v>
+        <v>71.91918854607269</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.958367000993</v>
@@ -30545,7 +30545,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>76.32865326014469</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>76.32865326014473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>15.36025740485484</v>
       </c>
       <c r="R43" t="n">
         <v>135.7881746594375</v>
@@ -30672,19 +30672,19 @@
         <v>171.5295072431148</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="V43" t="n">
         <v>171.5295072431148</v>
       </c>
       <c r="W43" t="n">
+        <v>113.5334305115272</v>
+      </c>
+      <c r="X43" t="n">
         <v>171.5295072431148</v>
       </c>
-      <c r="X43" t="n">
-        <v>128.8936879163819</v>
-      </c>
       <c r="Y43" t="n">
-        <v>171.5295072431148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.61576569231046</v>
+        <v>51.61576569231051</v>
       </c>
       <c r="S44" t="n">
         <v>171.5295072431148</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>76.32865326014465</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -30824,7 +30824,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>76.32865326014449</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30870,13 +30870,13 @@
         <v>166.958367000993</v>
       </c>
       <c r="H46" t="n">
-        <v>61.62154496553524</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I46" t="n">
-        <v>134.5756943977516</v>
+        <v>56.19854248734211</v>
       </c>
       <c r="J46" t="n">
-        <v>40.21324716010342</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.36025740485481</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -31750,22 +31750,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6067878605742089</v>
+        <v>0.606787860574209</v>
       </c>
       <c r="H11" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105619</v>
       </c>
       <c r="I11" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J11" t="n">
-        <v>51.50036118141031</v>
+        <v>51.50036118141032</v>
       </c>
       <c r="K11" t="n">
-        <v>77.18569131951658</v>
+        <v>77.18569131951659</v>
       </c>
       <c r="L11" t="n">
-        <v>95.75567530756454</v>
+        <v>95.75567530756457</v>
       </c>
       <c r="M11" t="n">
         <v>106.5466389230511</v>
@@ -31777,13 +31777,13 @@
         <v>102.2369281433228</v>
       </c>
       <c r="P11" t="n">
-        <v>87.25685283539703</v>
+        <v>87.25685283539704</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.52626257858314</v>
+        <v>65.52626257858316</v>
       </c>
       <c r="R11" t="n">
-        <v>38.11613794679468</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S11" t="n">
         <v>13.8271783728348</v>
@@ -31792,7 +31792,7 @@
         <v>2.656213859663601</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0485430288459367</v>
+        <v>0.04854302884593671</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H12" t="n">
         <v>3.135533336413885</v>
@@ -31844,19 +31844,19 @@
         <v>52.42549084775204</v>
       </c>
       <c r="L12" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221134</v>
       </c>
       <c r="M12" t="n">
-        <v>82.26147177321984</v>
+        <v>82.26147177321985</v>
       </c>
       <c r="N12" t="n">
-        <v>84.43868815440824</v>
+        <v>84.43868815440825</v>
       </c>
       <c r="O12" t="n">
-        <v>77.24490322454314</v>
+        <v>77.24490322454315</v>
       </c>
       <c r="P12" t="n">
-        <v>61.99584486865927</v>
+        <v>61.99584486865928</v>
       </c>
       <c r="Q12" t="n">
         <v>41.44258048273829</v>
@@ -31865,7 +31865,7 @@
         <v>20.15740686206856</v>
       </c>
       <c r="S12" t="n">
-        <v>6.030419473075745</v>
+        <v>6.030419473075747</v>
       </c>
       <c r="T12" t="n">
         <v>1.308608145397075</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354394</v>
       </c>
       <c r="H13" t="n">
         <v>2.419964487718727</v>
       </c>
       <c r="I13" t="n">
-        <v>8.185319555596671</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J13" t="n">
         <v>19.24341903986556</v>
@@ -31923,13 +31923,13 @@
         <v>31.62284882724468</v>
       </c>
       <c r="L13" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307979</v>
       </c>
       <c r="M13" t="n">
-        <v>42.66610190361346</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N13" t="n">
-        <v>41.65159736377231</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O13" t="n">
         <v>38.47199167183103</v>
@@ -31938,13 +31938,13 @@
         <v>32.91943511718804</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.79171052799302</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R13" t="n">
         <v>12.23838891232803</v>
       </c>
       <c r="S13" t="n">
-        <v>4.743427324086701</v>
+        <v>4.743427324086702</v>
       </c>
       <c r="T13" t="n">
         <v>1.162968618842332</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6067878605742087</v>
+        <v>0.6067878605742092</v>
       </c>
       <c r="H29" t="n">
-        <v>6.214266177105618</v>
+        <v>6.214266177105622</v>
       </c>
       <c r="I29" t="n">
-        <v>23.39318899478721</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J29" t="n">
-        <v>51.5003611814103</v>
+        <v>51.50036118141034</v>
       </c>
       <c r="K29" t="n">
-        <v>77.18569131951656</v>
+        <v>77.18569131951664</v>
       </c>
       <c r="L29" t="n">
-        <v>95.75567530756453</v>
+        <v>95.7556753075646</v>
       </c>
       <c r="M29" t="n">
-        <v>106.5466389230511</v>
+        <v>106.5466389230512</v>
       </c>
       <c r="N29" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319077</v>
       </c>
       <c r="O29" t="n">
-        <v>102.2369281433228</v>
+        <v>102.2369281433229</v>
       </c>
       <c r="P29" t="n">
-        <v>87.25685283539701</v>
+        <v>87.25685283539707</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.52626257858313</v>
+        <v>65.52626257858319</v>
       </c>
       <c r="R29" t="n">
-        <v>38.11613794679467</v>
+        <v>38.1161379467947</v>
       </c>
       <c r="S29" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283481</v>
       </c>
       <c r="T29" t="n">
-        <v>2.6562138596636</v>
+        <v>2.656213859663602</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04854302884593669</v>
+        <v>0.04854302884593673</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.324660127476097</v>
+        <v>0.3246601274760972</v>
       </c>
       <c r="H30" t="n">
-        <v>3.135533336413884</v>
+        <v>3.135533336413887</v>
       </c>
       <c r="I30" t="n">
-        <v>11.17799123108492</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J30" t="n">
-        <v>30.67326230685353</v>
+        <v>30.67326230685356</v>
       </c>
       <c r="K30" t="n">
-        <v>52.42549084775203</v>
+        <v>52.42549084775207</v>
       </c>
       <c r="L30" t="n">
-        <v>70.49254215221133</v>
+        <v>70.49254215221137</v>
       </c>
       <c r="M30" t="n">
-        <v>82.26147177321981</v>
+        <v>82.26147177321988</v>
       </c>
       <c r="N30" t="n">
-        <v>84.43868815440823</v>
+        <v>84.43868815440828</v>
       </c>
       <c r="O30" t="n">
-        <v>77.24490322454312</v>
+        <v>77.24490322454318</v>
       </c>
       <c r="P30" t="n">
-        <v>61.99584486865925</v>
+        <v>61.9958448686593</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.44258048273827</v>
+        <v>41.44258048273831</v>
       </c>
       <c r="R30" t="n">
-        <v>20.15740686206856</v>
+        <v>20.15740686206857</v>
       </c>
       <c r="S30" t="n">
-        <v>6.030419473075744</v>
+        <v>6.030419473075749</v>
       </c>
       <c r="T30" t="n">
         <v>1.308608145397075</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02135921891290113</v>
+        <v>0.02135921891290114</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2721841448354393</v>
+        <v>0.2721841448354395</v>
       </c>
       <c r="H31" t="n">
-        <v>2.419964487718726</v>
+        <v>2.419964487718728</v>
       </c>
       <c r="I31" t="n">
-        <v>8.185319555596669</v>
+        <v>8.185319555596674</v>
       </c>
       <c r="J31" t="n">
-        <v>19.24341903986556</v>
+        <v>19.24341903986557</v>
       </c>
       <c r="K31" t="n">
-        <v>31.62284882724467</v>
+        <v>31.6228488272447</v>
       </c>
       <c r="L31" t="n">
-        <v>40.46635913307978</v>
+        <v>40.46635913307981</v>
       </c>
       <c r="M31" t="n">
-        <v>42.66610190361345</v>
+        <v>42.66610190361348</v>
       </c>
       <c r="N31" t="n">
-        <v>41.6515973637723</v>
+        <v>41.65159736377233</v>
       </c>
       <c r="O31" t="n">
-        <v>38.47199167183102</v>
+        <v>38.47199167183105</v>
       </c>
       <c r="P31" t="n">
-        <v>32.91943511718803</v>
+        <v>32.91943511718805</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.79171052799301</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R31" t="n">
-        <v>12.23838891232802</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S31" t="n">
-        <v>4.7434273240867</v>
+        <v>4.743427324086704</v>
       </c>
       <c r="T31" t="n">
-        <v>1.162968618842331</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01484640790011489</v>
+        <v>0.0148464079001149</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6067878605742095</v>
+        <v>0.6067878605742087</v>
       </c>
       <c r="H44" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105618</v>
       </c>
       <c r="I44" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478721</v>
       </c>
       <c r="J44" t="n">
-        <v>51.50036118141037</v>
+        <v>51.5003611814103</v>
       </c>
       <c r="K44" t="n">
-        <v>77.18569131951668</v>
+        <v>77.18569131951656</v>
       </c>
       <c r="L44" t="n">
-        <v>95.75567530756466</v>
+        <v>95.75567530756453</v>
       </c>
       <c r="M44" t="n">
-        <v>106.5466389230512</v>
+        <v>106.5466389230511</v>
       </c>
       <c r="N44" t="n">
-        <v>108.2706749319077</v>
+        <v>108.2706749319076</v>
       </c>
       <c r="O44" t="n">
-        <v>102.2369281433229</v>
+        <v>102.2369281433228</v>
       </c>
       <c r="P44" t="n">
-        <v>87.25685283539713</v>
+        <v>87.25685283539701</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.52626257858321</v>
+        <v>65.52626257858313</v>
       </c>
       <c r="R44" t="n">
-        <v>38.11613794679472</v>
+        <v>38.11613794679467</v>
       </c>
       <c r="S44" t="n">
-        <v>13.82717837283481</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T44" t="n">
-        <v>2.656213859663604</v>
+        <v>2.6562138596636</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04854302884593675</v>
+        <v>0.04854302884593669</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3246601274760974</v>
+        <v>0.324660127476097</v>
       </c>
       <c r="H45" t="n">
-        <v>3.135533336413888</v>
+        <v>3.135533336413884</v>
       </c>
       <c r="I45" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108492</v>
       </c>
       <c r="J45" t="n">
-        <v>30.67326230685357</v>
+        <v>30.67326230685353</v>
       </c>
       <c r="K45" t="n">
-        <v>52.42549084775209</v>
+        <v>52.42549084775203</v>
       </c>
       <c r="L45" t="n">
-        <v>70.49254215221141</v>
+        <v>70.49254215221133</v>
       </c>
       <c r="M45" t="n">
-        <v>82.26147177321992</v>
+        <v>82.26147177321981</v>
       </c>
       <c r="N45" t="n">
-        <v>84.43868815440833</v>
+        <v>84.43868815440823</v>
       </c>
       <c r="O45" t="n">
-        <v>77.24490322454322</v>
+        <v>77.24490322454312</v>
       </c>
       <c r="P45" t="n">
-        <v>61.99584486865934</v>
+        <v>61.99584486865925</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.44258048273833</v>
+        <v>41.44258048273827</v>
       </c>
       <c r="R45" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206856</v>
       </c>
       <c r="S45" t="n">
-        <v>6.030419473075752</v>
+        <v>6.030419473075744</v>
       </c>
       <c r="T45" t="n">
-        <v>1.308608145397076</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02135921891290115</v>
+        <v>0.02135921891290113</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354393</v>
       </c>
       <c r="H46" t="n">
-        <v>2.419964487718729</v>
+        <v>2.419964487718726</v>
       </c>
       <c r="I46" t="n">
-        <v>8.18531955559668</v>
+        <v>8.185319555596669</v>
       </c>
       <c r="J46" t="n">
-        <v>19.24341903986558</v>
+        <v>19.24341903986556</v>
       </c>
       <c r="K46" t="n">
-        <v>31.62284882724471</v>
+        <v>31.62284882724467</v>
       </c>
       <c r="L46" t="n">
-        <v>40.46635913307983</v>
+        <v>40.46635913307978</v>
       </c>
       <c r="M46" t="n">
-        <v>42.66610190361351</v>
+        <v>42.66610190361345</v>
       </c>
       <c r="N46" t="n">
-        <v>41.65159736377235</v>
+        <v>41.6515973637723</v>
       </c>
       <c r="O46" t="n">
-        <v>38.47199167183107</v>
+        <v>38.47199167183102</v>
       </c>
       <c r="P46" t="n">
-        <v>32.91943511718807</v>
+        <v>32.91943511718803</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799301</v>
       </c>
       <c r="R46" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232802</v>
       </c>
       <c r="S46" t="n">
-        <v>4.743427324086706</v>
+        <v>4.7434273240867</v>
       </c>
       <c r="T46" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842331</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.01484640790011489</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.2261634771736</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>319.751723687984</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>374.9385124422568</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>256.0972522581296</v>
       </c>
       <c r="N11" t="n">
-        <v>129.8377295001393</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="O11" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q11" t="n">
         <v>160.912377413469</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>91.53603658271834</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>158.9816185420597</v>
       </c>
       <c r="L12" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="M12" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="N12" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="O12" t="n">
-        <v>67.44558195934124</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>65.56647281173298</v>
       </c>
       <c r="L13" t="n">
-        <v>142.0896716585944</v>
+        <v>142.0896716585945</v>
       </c>
       <c r="M13" t="n">
         <v>161.8514616284637</v>
       </c>
       <c r="N13" t="n">
-        <v>161.2701243835706</v>
+        <v>161.2701243835707</v>
       </c>
       <c r="O13" t="n">
         <v>137.930220455356</v>
       </c>
       <c r="P13" t="n">
-        <v>96.52396413550903</v>
+        <v>96.52396413550905</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K14" t="n">
         <v>319.751723687984</v>
       </c>
       <c r="L14" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="M14" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="N14" t="n">
-        <v>374.9385124422569</v>
+        <v>290.750106913609</v>
       </c>
       <c r="O14" t="n">
-        <v>40.03775794852513</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>284.2341297974376</v>
       </c>
       <c r="L15" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>158.1499646041606</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>165.9452389699839</v>
       </c>
       <c r="O15" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q15" t="n">
         <v>200.8078630944496</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2.296703792355879e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K17" t="n">
-        <v>256.0972522581291</v>
+        <v>319.751723687984</v>
       </c>
       <c r="L17" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>290.750106913609</v>
       </c>
       <c r="O17" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>317.7183644071679</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>160.912377413469</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>91.53603658271832</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>166.7768929078822</v>
+        <v>75.2408563251643</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="O18" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="P18" t="n">
         <v>367.1432380764343</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>42.07111722934125</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="N20" t="n">
-        <v>374.9385124422569</v>
+        <v>359.7894816365094</v>
       </c>
       <c r="O20" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="P20" t="n">
-        <v>317.7183644071679</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>284.2341297974376</v>
       </c>
       <c r="L21" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="M21" t="n">
-        <v>366.7531020644329</v>
+        <v>158.149964604161</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="P21" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.2261634771736</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>319.751723687984</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>187.0578775352285</v>
+        <v>256.0972522581296</v>
       </c>
       <c r="N23" t="n">
-        <v>374.9385124422569</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="P23" t="n">
         <v>317.7183644071679</v>
@@ -36437,25 +36437,25 @@
         <v>91.53603658271832</v>
       </c>
       <c r="K24" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>75.2408563251643</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="O24" t="n">
-        <v>366.7531020644329</v>
+        <v>374.9385124422571</v>
       </c>
       <c r="P24" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>225.3454636993784</v>
+        <v>225.3454636993783</v>
       </c>
       <c r="K26" t="n">
-        <v>420.8710239101888</v>
+        <v>420.8710239101887</v>
       </c>
       <c r="L26" t="n">
-        <v>548.2743422822402</v>
+        <v>548.2743422822401</v>
       </c>
       <c r="M26" t="n">
-        <v>549.7469423939474</v>
+        <v>604.877218188779</v>
       </c>
       <c r="N26" t="n">
-        <v>591.5428627174616</v>
+        <v>591.5428627174615</v>
       </c>
       <c r="O26" t="n">
-        <v>410.3223670047713</v>
+        <v>511.4416672269759</v>
       </c>
       <c r="P26" t="n">
-        <v>418.8376646293727</v>
+        <v>317.7183644071679</v>
       </c>
       <c r="Q26" t="n">
-        <v>262.0316776356738</v>
+        <v>206.9014018408431</v>
       </c>
       <c r="R26" t="n">
-        <v>49.50353452989432</v>
+        <v>49.50353452989417</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>91.53603658271832</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L27" t="n">
         <v>440.0095574755605</v>
@@ -36683,10 +36683,10 @@
         <v>572.1941520865798</v>
       </c>
       <c r="N27" t="n">
-        <v>600.8686337333195</v>
+        <v>364.0870638446425</v>
       </c>
       <c r="O27" t="n">
-        <v>429.3229929992225</v>
+        <v>473.4064696731804</v>
       </c>
       <c r="P27" t="n">
         <v>367.1432380764343</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.90605306210139</v>
+        <v>60.90605306210124</v>
       </c>
       <c r="K28" t="n">
-        <v>166.6857730339378</v>
+        <v>166.6857730339376</v>
       </c>
       <c r="L28" t="n">
-        <v>243.2089718807993</v>
+        <v>243.2089718807991</v>
       </c>
       <c r="M28" t="n">
-        <v>262.9707618506685</v>
+        <v>262.9707618506684</v>
       </c>
       <c r="N28" t="n">
-        <v>262.3894246057755</v>
+        <v>262.3894246057753</v>
       </c>
       <c r="O28" t="n">
-        <v>239.0495206775608</v>
+        <v>239.0495206775606</v>
       </c>
       <c r="P28" t="n">
-        <v>197.6432643577139</v>
+        <v>197.6432643577137</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.75904281734999</v>
+        <v>85.75904281735274</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.2261634771736</v>
+        <v>225.3454636993784</v>
       </c>
       <c r="K29" t="n">
-        <v>420.8710239101888</v>
+        <v>420.8710239101889</v>
       </c>
       <c r="L29" t="n">
-        <v>548.2743422822402</v>
+        <v>548.2743422822404</v>
       </c>
       <c r="M29" t="n">
-        <v>549.7469423939478</v>
+        <v>604.8772181887791</v>
       </c>
       <c r="N29" t="n">
-        <v>591.5428627174616</v>
+        <v>490.4235624952569</v>
       </c>
       <c r="O29" t="n">
-        <v>511.4416672269761</v>
+        <v>456.3113914321447</v>
       </c>
       <c r="P29" t="n">
-        <v>418.8376646293727</v>
+        <v>418.8376646293728</v>
       </c>
       <c r="Q29" t="n">
-        <v>262.0316776356738</v>
+        <v>262.0316776356739</v>
       </c>
       <c r="R29" t="n">
-        <v>49.5035345298943</v>
+        <v>49.50353452989433</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>91.53603658271832</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L30" t="n">
-        <v>440.0095574755605</v>
+        <v>203.227987586883</v>
       </c>
       <c r="M30" t="n">
-        <v>572.1941520865798</v>
+        <v>572.1941520865799</v>
       </c>
       <c r="N30" t="n">
-        <v>71.74316416747462</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O30" t="n">
         <v>473.4064696731804</v>
@@ -36929,7 +36929,7 @@
         <v>367.1432380764343</v>
       </c>
       <c r="Q30" t="n">
-        <v>200.8078630944496</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.90605306210137</v>
+        <v>60.90605306210139</v>
       </c>
       <c r="K31" t="n">
         <v>166.6857730339378</v>
@@ -36999,16 +36999,16 @@
         <v>262.9707618506685</v>
       </c>
       <c r="N31" t="n">
-        <v>262.3894246057754</v>
+        <v>262.3894246057755</v>
       </c>
       <c r="O31" t="n">
-        <v>239.0495206775607</v>
+        <v>239.0495206775608</v>
       </c>
       <c r="P31" t="n">
         <v>197.6432643577139</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.75904281734998</v>
+        <v>85.75904281734999</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.2261634771736</v>
+        <v>225.3454636993784</v>
       </c>
       <c r="K32" t="n">
         <v>420.8710239101888</v>
@@ -37078,19 +37078,19 @@
         <v>604.8772181887791</v>
       </c>
       <c r="N32" t="n">
-        <v>585.9161214525244</v>
+        <v>591.5428627174616</v>
       </c>
       <c r="O32" t="n">
-        <v>511.4416672269761</v>
+        <v>410.3223670047713</v>
       </c>
       <c r="P32" t="n">
-        <v>418.8376646293727</v>
+        <v>363.7073888345419</v>
       </c>
       <c r="Q32" t="n">
         <v>262.0316776356738</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>49.50353452989429</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>440.0095574755605</v>
       </c>
       <c r="M33" t="n">
-        <v>572.1941520865798</v>
+        <v>43.06868252073495</v>
       </c>
       <c r="N33" t="n">
-        <v>71.74316416747462</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O33" t="n">
         <v>473.4064696731804</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.90605306210139</v>
+        <v>60.90605306210136</v>
       </c>
       <c r="K34" t="n">
-        <v>166.6857730339378</v>
+        <v>166.6857730339377</v>
       </c>
       <c r="L34" t="n">
-        <v>243.2089718807993</v>
+        <v>243.2089718807992</v>
       </c>
       <c r="M34" t="n">
         <v>262.9707618506685</v>
       </c>
       <c r="N34" t="n">
-        <v>262.3894246057751</v>
+        <v>262.3894246057754</v>
       </c>
       <c r="O34" t="n">
-        <v>239.0495206775608</v>
+        <v>239.0495206775607</v>
       </c>
       <c r="P34" t="n">
-        <v>197.6432643577139</v>
+        <v>197.6432643577138</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.75904281734999</v>
+        <v>85.75904281734996</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.2261634771736</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>319.751723687984</v>
       </c>
       <c r="L35" t="n">
-        <v>447.1550420600355</v>
+        <v>381.2222412933736</v>
       </c>
       <c r="M35" t="n">
-        <v>470.4049407164367</v>
+        <v>503.7579179665743</v>
       </c>
       <c r="N35" t="n">
         <v>490.4235624952568</v>
@@ -37321,10 +37321,10 @@
         <v>410.3223670047713</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>317.7183644071679</v>
       </c>
       <c r="Q35" t="n">
-        <v>160.912377413469</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>473.4064696731804</v>
       </c>
       <c r="P36" t="n">
-        <v>336.7173638864867</v>
+        <v>336.7173638864876</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8189229213207</v>
+        <v>319.751723687984</v>
       </c>
       <c r="L38" t="n">
-        <v>447.1550420600355</v>
+        <v>96.08370040273097</v>
       </c>
       <c r="M38" t="n">
         <v>503.7579179665743</v>
@@ -37561,7 +37561,7 @@
         <v>317.7183644071679</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37631,16 +37631,16 @@
         <v>572.1941520865798</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O39" t="n">
-        <v>467.2711997419461</v>
+        <v>434.353667179512</v>
       </c>
       <c r="P39" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>200.8078630944496</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>284.2341297974376</v>
       </c>
       <c r="L42" t="n">
-        <v>440.0095574755605</v>
+        <v>405.1998058975868</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>600.8686337333195</v>
       </c>
       <c r="O42" t="n">
-        <v>438.5967180952066</v>
+        <v>473.4064696731804</v>
       </c>
       <c r="P42" t="n">
         <v>367.1432380764343</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.2261634771737</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K44" t="n">
-        <v>319.7517236879841</v>
+        <v>319.751723687984</v>
       </c>
       <c r="L44" t="n">
-        <v>447.1550420600356</v>
+        <v>447.1550420600355</v>
       </c>
       <c r="M44" t="n">
-        <v>503.7579179665744</v>
+        <v>503.7579179665743</v>
       </c>
       <c r="N44" t="n">
-        <v>490.423562495257</v>
+        <v>490.4235624952568</v>
       </c>
       <c r="O44" t="n">
-        <v>59.25102534746441</v>
+        <v>410.3223670047713</v>
       </c>
       <c r="P44" t="n">
-        <v>317.7183644071681</v>
+        <v>127.5594001633309</v>
       </c>
       <c r="Q44" t="n">
-        <v>160.9123774134691</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>91.53603658271837</v>
+        <v>91.53603658271832</v>
       </c>
       <c r="K45" t="n">
         <v>284.2341297974376</v>
@@ -38102,19 +38102,19 @@
         <v>440.0095574755605</v>
       </c>
       <c r="M45" t="n">
-        <v>572.1941520865799</v>
+        <v>566.0588821553458</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>467.2711997419461</v>
+        <v>473.4064696731804</v>
       </c>
       <c r="P45" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.8078630944497</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173296</v>
       </c>
       <c r="L46" t="n">
-        <v>142.0896716585945</v>
+        <v>142.0896716585944</v>
       </c>
       <c r="M46" t="n">
         <v>161.8514616284637</v>
       </c>
       <c r="N46" t="n">
-        <v>161.2701243835707</v>
+        <v>161.2701243835706</v>
       </c>
       <c r="O46" t="n">
-        <v>137.930220455356</v>
+        <v>137.9302204553559</v>
       </c>
       <c r="P46" t="n">
-        <v>96.52396413550908</v>
+        <v>96.52396413550903</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
